--- a/templates/32.xlsx
+++ b/templates/32.xlsx
@@ -250,6 +250,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -262,6 +283,15 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -274,6 +304,24 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -300,54 +348,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -652,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V43" sqref="V43"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q89" sqref="Q89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -666,52 +666,52 @@
   <sheetData>
     <row r="1" spans="1:17" s="3" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="42"/>
+      <c r="C1" s="30"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="42"/>
+      <c r="F1" s="30"/>
       <c r="G1" s="8"/>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="42"/>
+      <c r="I1" s="30"/>
       <c r="J1" s="8"/>
-      <c r="K1" s="42" t="s">
+      <c r="K1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="42"/>
+      <c r="L1" s="30"/>
       <c r="M1" s="8"/>
-      <c r="N1" s="42" t="s">
+      <c r="N1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="42"/>
+      <c r="O1" s="30"/>
     </row>
     <row r="2" spans="1:17" s="3" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
       <c r="G2" s="8"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
       <c r="J2" s="8"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
       <c r="M2" s="8"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
     </row>
     <row r="3" spans="1:17" s="3" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="26"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="33"/>
       <c r="D3" s="12"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
@@ -722,8 +722,8 @@
     </row>
     <row r="4" spans="1:17" s="3" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="28"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="35"/>
       <c r="D4" s="12"/>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
@@ -737,8 +737,8 @@
       <c r="B5" s="23"/>
       <c r="C5" s="23"/>
       <c r="D5" s="15"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="26"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="33"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
@@ -749,23 +749,23 @@
       <c r="B6" s="23"/>
       <c r="C6" s="23"/>
       <c r="D6" s="13"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="28"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="35"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="35"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="51"/>
     </row>
     <row r="7" spans="1:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="29"/>
-      <c r="C7" s="30"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="40"/>
       <c r="D7" s="11"/>
       <c r="E7" s="24"/>
       <c r="F7" s="24"/>
@@ -773,18 +773,18 @@
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="38"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="54"/>
     </row>
     <row r="8" spans="1:17" s="1" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="32"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="42"/>
       <c r="D8" s="12"/>
       <c r="E8" s="24"/>
       <c r="F8" s="24"/>
@@ -792,13 +792,13 @@
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="38"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="54"/>
     </row>
     <row r="9" spans="1:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="23"/>
@@ -807,16 +807,16 @@
       <c r="E9" s="24"/>
       <c r="F9" s="24"/>
       <c r="G9" s="16"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="26"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="33"/>
       <c r="J9" s="11"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="41"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="57"/>
     </row>
     <row r="10" spans="1:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="23"/>
@@ -825,13 +825,13 @@
       <c r="E10" s="24"/>
       <c r="F10" s="24"/>
       <c r="G10" s="14"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="28"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="35"/>
       <c r="J10" s="11"/>
     </row>
     <row r="11" spans="1:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="25"/>
-      <c r="C11" s="26"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="33"/>
       <c r="D11" s="11"/>
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
@@ -841,8 +841,8 @@
       <c r="J11" s="14"/>
     </row>
     <row r="12" spans="1:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="27"/>
-      <c r="C12" s="28"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="35"/>
       <c r="D12" s="11"/>
       <c r="E12" s="24"/>
       <c r="F12" s="24"/>
@@ -855,8 +855,8 @@
       <c r="B13" s="23"/>
       <c r="C13" s="23"/>
       <c r="D13" s="15"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="30"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="40"/>
       <c r="G13" s="11"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
@@ -866,16 +866,16 @@
       <c r="B14" s="23"/>
       <c r="C14" s="23"/>
       <c r="D14" s="13"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="32"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="42"/>
       <c r="G14" s="11"/>
       <c r="H14" s="24"/>
       <c r="I14" s="24"/>
       <c r="J14" s="14"/>
     </row>
     <row r="15" spans="1:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="29"/>
-      <c r="C15" s="30"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="40"/>
       <c r="D15" s="11"/>
       <c r="E15" s="24"/>
       <c r="F15" s="24"/>
@@ -885,8 +885,8 @@
       <c r="J15" s="14"/>
     </row>
     <row r="16" spans="1:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="31"/>
-      <c r="C16" s="32"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="42"/>
       <c r="D16" s="11"/>
       <c r="E16" s="24"/>
       <c r="F16" s="24"/>
@@ -905,8 +905,8 @@
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
       <c r="J17" s="16"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="26"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="33"/>
     </row>
     <row r="18" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="23"/>
@@ -918,12 +918,12 @@
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
       <c r="J18" s="14"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="28"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="35"/>
     </row>
     <row r="19" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="25"/>
-      <c r="C19" s="26"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="33"/>
       <c r="D19" s="11"/>
       <c r="E19" s="24"/>
       <c r="F19" s="24"/>
@@ -936,8 +936,8 @@
       <c r="M19" s="4"/>
     </row>
     <row r="20" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="27"/>
-      <c r="C20" s="28"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="35"/>
       <c r="D20" s="11"/>
       <c r="E20" s="24"/>
       <c r="F20" s="24"/>
@@ -953,8 +953,8 @@
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
       <c r="D21" s="15"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="26"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="33"/>
       <c r="G21" s="11"/>
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
@@ -967,8 +967,8 @@
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
       <c r="D22" s="13"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="28"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="35"/>
       <c r="G22" s="11"/>
       <c r="H22" s="24"/>
       <c r="I22" s="24"/>
@@ -978,8 +978,8 @@
       <c r="M22" s="4"/>
     </row>
     <row r="23" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="29"/>
-      <c r="C23" s="30"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="40"/>
       <c r="D23" s="11"/>
       <c r="E23" s="24"/>
       <c r="F23" s="24"/>
@@ -992,8 +992,8 @@
       <c r="M23" s="4"/>
     </row>
     <row r="24" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="31"/>
-      <c r="C24" s="32"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="42"/>
       <c r="D24" s="11"/>
       <c r="E24" s="24"/>
       <c r="F24" s="24"/>
@@ -1012,8 +1012,8 @@
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
       <c r="G25" s="16"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="30"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="40"/>
       <c r="J25" s="11"/>
       <c r="K25" s="24"/>
       <c r="L25" s="24"/>
@@ -1026,16 +1026,16 @@
       <c r="E26" s="24"/>
       <c r="F26" s="24"/>
       <c r="G26" s="14"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="32"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="42"/>
       <c r="J26" s="11"/>
       <c r="K26" s="24"/>
       <c r="L26" s="24"/>
       <c r="M26" s="4"/>
     </row>
     <row r="27" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="25"/>
-      <c r="C27" s="26"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="33"/>
       <c r="D27" s="11"/>
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
@@ -1048,8 +1048,8 @@
       <c r="M27" s="4"/>
     </row>
     <row r="28" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="27"/>
-      <c r="C28" s="28"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="35"/>
       <c r="D28" s="11"/>
       <c r="E28" s="24"/>
       <c r="F28" s="24"/>
@@ -1065,8 +1065,8 @@
       <c r="B29" s="23"/>
       <c r="C29" s="23"/>
       <c r="D29" s="15"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="30"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="40"/>
       <c r="G29" s="11"/>
       <c r="H29" s="24"/>
       <c r="I29" s="24"/>
@@ -1079,8 +1079,8 @@
       <c r="B30" s="23"/>
       <c r="C30" s="23"/>
       <c r="D30" s="13"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="32"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="42"/>
       <c r="G30" s="11"/>
       <c r="H30" s="24"/>
       <c r="I30" s="24"/>
@@ -1092,8 +1092,8 @@
       <c r="O30" s="6"/>
     </row>
     <row r="31" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="29"/>
-      <c r="C31" s="30"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="40"/>
       <c r="D31" s="11"/>
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
@@ -1108,8 +1108,8 @@
       <c r="O31" s="7"/>
     </row>
     <row r="32" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="31"/>
-      <c r="C32" s="32"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="42"/>
       <c r="D32" s="11"/>
       <c r="E32" s="24"/>
       <c r="F32" s="24"/>
@@ -1136,8 +1136,8 @@
       <c r="K33" s="24"/>
       <c r="L33" s="24"/>
       <c r="M33" s="5"/>
-      <c r="N33" s="25"/>
-      <c r="O33" s="26"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="33"/>
     </row>
     <row r="34" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="23"/>
@@ -1152,12 +1152,12 @@
       <c r="K34" s="24"/>
       <c r="L34" s="24"/>
       <c r="M34" s="4"/>
-      <c r="N34" s="27"/>
-      <c r="O34" s="28"/>
+      <c r="N34" s="34"/>
+      <c r="O34" s="35"/>
     </row>
     <row r="35" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="25"/>
-      <c r="C35" s="26"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="33"/>
       <c r="D35" s="11"/>
       <c r="E35" s="24"/>
       <c r="F35" s="24"/>
@@ -1169,11 +1169,11 @@
       <c r="L35" s="24"/>
       <c r="M35" s="4"/>
       <c r="N35" s="24"/>
-      <c r="O35" s="53"/>
+      <c r="O35" s="25"/>
     </row>
     <row r="36" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="27"/>
-      <c r="C36" s="28"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="35"/>
       <c r="D36" s="11"/>
       <c r="E36" s="24"/>
       <c r="F36" s="24"/>
@@ -1185,14 +1185,14 @@
       <c r="L36" s="24"/>
       <c r="M36" s="4"/>
       <c r="N36" s="24"/>
-      <c r="O36" s="54"/>
+      <c r="O36" s="26"/>
     </row>
     <row r="37" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="23"/>
       <c r="C37" s="23"/>
       <c r="D37" s="15"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="26"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="33"/>
       <c r="G37" s="11"/>
       <c r="H37" s="24"/>
       <c r="I37" s="24"/>
@@ -1201,14 +1201,14 @@
       <c r="L37" s="24"/>
       <c r="M37" s="4"/>
       <c r="N37" s="24"/>
-      <c r="O37" s="54"/>
+      <c r="O37" s="26"/>
     </row>
     <row r="38" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="23"/>
       <c r="C38" s="23"/>
       <c r="D38" s="13"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="28"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="35"/>
       <c r="G38" s="11"/>
       <c r="H38" s="24"/>
       <c r="I38" s="24"/>
@@ -1217,11 +1217,11 @@
       <c r="L38" s="24"/>
       <c r="M38" s="4"/>
       <c r="N38" s="24"/>
-      <c r="O38" s="54"/>
+      <c r="O38" s="26"/>
     </row>
     <row r="39" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="29"/>
-      <c r="C39" s="30"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="40"/>
       <c r="D39" s="11"/>
       <c r="E39" s="24"/>
       <c r="F39" s="24"/>
@@ -1233,11 +1233,11 @@
       <c r="L39" s="24"/>
       <c r="M39" s="4"/>
       <c r="N39" s="24"/>
-      <c r="O39" s="54"/>
+      <c r="O39" s="26"/>
     </row>
     <row r="40" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="31"/>
-      <c r="C40" s="32"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="42"/>
       <c r="D40" s="11"/>
       <c r="E40" s="24"/>
       <c r="F40" s="24"/>
@@ -1249,7 +1249,7 @@
       <c r="L40" s="24"/>
       <c r="M40" s="4"/>
       <c r="N40" s="24"/>
-      <c r="O40" s="54"/>
+      <c r="O40" s="26"/>
     </row>
     <row r="41" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="23"/>
@@ -1258,14 +1258,14 @@
       <c r="E41" s="24"/>
       <c r="F41" s="24"/>
       <c r="G41" s="16"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="26"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="33"/>
       <c r="J41" s="11"/>
       <c r="K41" s="24"/>
       <c r="L41" s="24"/>
       <c r="M41" s="4"/>
       <c r="N41" s="24"/>
-      <c r="O41" s="54"/>
+      <c r="O41" s="26"/>
     </row>
     <row r="42" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="23"/>
@@ -1274,18 +1274,18 @@
       <c r="E42" s="24"/>
       <c r="F42" s="24"/>
       <c r="G42" s="14"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="28"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="35"/>
       <c r="J42" s="11"/>
       <c r="K42" s="24"/>
       <c r="L42" s="24"/>
       <c r="M42" s="4"/>
       <c r="N42" s="24"/>
-      <c r="O42" s="54"/>
+      <c r="O42" s="26"/>
     </row>
     <row r="43" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="25"/>
-      <c r="C43" s="26"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="33"/>
       <c r="D43" s="11"/>
       <c r="E43" s="24"/>
       <c r="F43" s="24"/>
@@ -1297,11 +1297,11 @@
       <c r="L43" s="24"/>
       <c r="M43" s="4"/>
       <c r="N43" s="24"/>
-      <c r="O43" s="54"/>
+      <c r="O43" s="26"/>
     </row>
     <row r="44" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="27"/>
-      <c r="C44" s="28"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="35"/>
       <c r="D44" s="11"/>
       <c r="E44" s="24"/>
       <c r="F44" s="24"/>
@@ -1313,14 +1313,14 @@
       <c r="L44" s="24"/>
       <c r="M44" s="4"/>
       <c r="N44" s="24"/>
-      <c r="O44" s="54"/>
+      <c r="O44" s="26"/>
     </row>
     <row r="45" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="23"/>
       <c r="C45" s="23"/>
       <c r="D45" s="15"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="30"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="40"/>
       <c r="G45" s="11"/>
       <c r="H45" s="24"/>
       <c r="I45" s="24"/>
@@ -1329,14 +1329,14 @@
       <c r="L45" s="24"/>
       <c r="M45" s="4"/>
       <c r="N45" s="24"/>
-      <c r="O45" s="54"/>
+      <c r="O45" s="26"/>
     </row>
     <row r="46" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="23"/>
       <c r="C46" s="23"/>
       <c r="D46" s="13"/>
-      <c r="E46" s="31"/>
-      <c r="F46" s="32"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="42"/>
       <c r="G46" s="11"/>
       <c r="H46" s="24"/>
       <c r="I46" s="24"/>
@@ -1345,11 +1345,11 @@
       <c r="L46" s="24"/>
       <c r="M46" s="4"/>
       <c r="N46" s="24"/>
-      <c r="O46" s="54"/>
+      <c r="O46" s="26"/>
     </row>
     <row r="47" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="29"/>
-      <c r="C47" s="30"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="40"/>
       <c r="D47" s="11"/>
       <c r="E47" s="24"/>
       <c r="F47" s="24"/>
@@ -1361,11 +1361,11 @@
       <c r="L47" s="24"/>
       <c r="M47" s="4"/>
       <c r="N47" s="24"/>
-      <c r="O47" s="54"/>
+      <c r="O47" s="26"/>
     </row>
     <row r="48" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="31"/>
-      <c r="C48" s="32"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="42"/>
       <c r="D48" s="11"/>
       <c r="E48" s="24"/>
       <c r="F48" s="24"/>
@@ -1377,7 +1377,7 @@
       <c r="L48" s="24"/>
       <c r="M48" s="4"/>
       <c r="N48" s="24"/>
-      <c r="O48" s="54"/>
+      <c r="O48" s="26"/>
     </row>
     <row r="49" spans="2:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="23"/>
@@ -1389,14 +1389,14 @@
       <c r="H49" s="24"/>
       <c r="I49" s="24"/>
       <c r="J49" s="16"/>
-      <c r="K49" s="29"/>
-      <c r="L49" s="30"/>
+      <c r="K49" s="39"/>
+      <c r="L49" s="40"/>
       <c r="N49" s="24"/>
-      <c r="O49" s="54"/>
-      <c r="P49" s="44" t="s">
+      <c r="O49" s="26"/>
+      <c r="P49" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="Q49" s="45"/>
+      <c r="Q49" s="36"/>
     </row>
     <row r="50" spans="2:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="23"/>
@@ -1408,16 +1408,16 @@
       <c r="H50" s="24"/>
       <c r="I50" s="24"/>
       <c r="J50" s="14"/>
-      <c r="K50" s="31"/>
-      <c r="L50" s="32"/>
+      <c r="K50" s="41"/>
+      <c r="L50" s="42"/>
       <c r="N50" s="24"/>
-      <c r="O50" s="54"/>
-      <c r="P50" s="44"/>
-      <c r="Q50" s="45"/>
+      <c r="O50" s="26"/>
+      <c r="P50" s="43"/>
+      <c r="Q50" s="36"/>
     </row>
     <row r="51" spans="2:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="25"/>
-      <c r="C51" s="26"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="33"/>
       <c r="D51" s="11"/>
       <c r="E51" s="24"/>
       <c r="F51" s="24"/>
@@ -1428,11 +1428,11 @@
       <c r="K51" s="24"/>
       <c r="L51" s="24"/>
       <c r="N51" s="24"/>
-      <c r="O51" s="54"/>
+      <c r="O51" s="26"/>
     </row>
     <row r="52" spans="2:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="27"/>
-      <c r="C52" s="28"/>
+      <c r="B52" s="34"/>
+      <c r="C52" s="35"/>
       <c r="D52" s="11"/>
       <c r="E52" s="24"/>
       <c r="F52" s="24"/>
@@ -1444,7 +1444,7 @@
       <c r="L52" s="24"/>
       <c r="M52" s="7"/>
       <c r="N52" s="24"/>
-      <c r="O52" s="54"/>
+      <c r="O52" s="26"/>
       <c r="P52" s="7"/>
       <c r="Q52" s="7"/>
     </row>
@@ -1452,8 +1452,8 @@
       <c r="B53" s="23"/>
       <c r="C53" s="23"/>
       <c r="D53" s="15"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="26"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="33"/>
       <c r="G53" s="11"/>
       <c r="H53" s="24"/>
       <c r="I53" s="24"/>
@@ -1462,7 +1462,7 @@
       <c r="L53" s="24"/>
       <c r="M53" s="7"/>
       <c r="N53" s="24"/>
-      <c r="O53" s="54"/>
+      <c r="O53" s="26"/>
       <c r="P53" s="7"/>
       <c r="Q53" s="7"/>
     </row>
@@ -1470,8 +1470,8 @@
       <c r="B54" s="23"/>
       <c r="C54" s="23"/>
       <c r="D54" s="13"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="28"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="35"/>
       <c r="G54" s="11"/>
       <c r="H54" s="24"/>
       <c r="I54" s="24"/>
@@ -1480,13 +1480,13 @@
       <c r="L54" s="24"/>
       <c r="M54" s="7"/>
       <c r="N54" s="24"/>
-      <c r="O54" s="54"/>
+      <c r="O54" s="26"/>
       <c r="P54" s="7"/>
       <c r="Q54" s="7"/>
     </row>
     <row r="55" spans="2:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="29"/>
-      <c r="C55" s="30"/>
+      <c r="B55" s="39"/>
+      <c r="C55" s="40"/>
       <c r="D55" s="11"/>
       <c r="E55" s="24"/>
       <c r="F55" s="24"/>
@@ -1498,13 +1498,13 @@
       <c r="L55" s="24"/>
       <c r="M55" s="7"/>
       <c r="N55" s="24"/>
-      <c r="O55" s="54"/>
+      <c r="O55" s="26"/>
       <c r="P55" s="7"/>
       <c r="Q55" s="7"/>
     </row>
     <row r="56" spans="2:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="31"/>
-      <c r="C56" s="32"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="42"/>
       <c r="D56" s="11"/>
       <c r="E56" s="24"/>
       <c r="F56" s="24"/>
@@ -1516,7 +1516,7 @@
       <c r="L56" s="24"/>
       <c r="M56" s="7"/>
       <c r="N56" s="24"/>
-      <c r="O56" s="54"/>
+      <c r="O56" s="26"/>
       <c r="P56" s="7"/>
       <c r="Q56" s="7"/>
     </row>
@@ -1527,14 +1527,14 @@
       <c r="E57" s="24"/>
       <c r="F57" s="24"/>
       <c r="G57" s="16"/>
-      <c r="H57" s="29"/>
-      <c r="I57" s="30"/>
+      <c r="H57" s="39"/>
+      <c r="I57" s="40"/>
       <c r="J57" s="11"/>
       <c r="K57" s="24"/>
       <c r="L57" s="24"/>
       <c r="M57" s="7"/>
       <c r="N57" s="24"/>
-      <c r="O57" s="54"/>
+      <c r="O57" s="26"/>
       <c r="P57" s="7"/>
       <c r="Q57" s="7"/>
     </row>
@@ -1545,20 +1545,20 @@
       <c r="E58" s="24"/>
       <c r="F58" s="24"/>
       <c r="G58" s="14"/>
-      <c r="H58" s="31"/>
-      <c r="I58" s="32"/>
+      <c r="H58" s="41"/>
+      <c r="I58" s="42"/>
       <c r="J58" s="11"/>
       <c r="K58" s="24"/>
       <c r="L58" s="24"/>
       <c r="M58" s="7"/>
       <c r="N58" s="24"/>
-      <c r="O58" s="54"/>
+      <c r="O58" s="26"/>
       <c r="P58" s="7"/>
       <c r="Q58" s="7"/>
     </row>
     <row r="59" spans="2:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="25"/>
-      <c r="C59" s="26"/>
+      <c r="B59" s="32"/>
+      <c r="C59" s="33"/>
       <c r="D59" s="11"/>
       <c r="E59" s="24"/>
       <c r="F59" s="24"/>
@@ -1570,13 +1570,13 @@
       <c r="L59" s="24"/>
       <c r="M59" s="7"/>
       <c r="N59" s="24"/>
-      <c r="O59" s="54"/>
+      <c r="O59" s="26"/>
       <c r="P59" s="7"/>
       <c r="Q59" s="7"/>
     </row>
     <row r="60" spans="2:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="27"/>
-      <c r="C60" s="28"/>
+      <c r="B60" s="34"/>
+      <c r="C60" s="35"/>
       <c r="D60" s="11"/>
       <c r="E60" s="24"/>
       <c r="F60" s="24"/>
@@ -1588,18 +1588,18 @@
       <c r="L60" s="24"/>
       <c r="M60" s="7"/>
       <c r="N60" s="24"/>
-      <c r="O60" s="54"/>
-      <c r="P60" s="50" t="s">
+      <c r="O60" s="26"/>
+      <c r="P60" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="Q60" s="50"/>
+      <c r="Q60" s="38"/>
     </row>
     <row r="61" spans="2:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="23"/>
       <c r="C61" s="23"/>
       <c r="D61" s="15"/>
-      <c r="E61" s="29"/>
-      <c r="F61" s="30"/>
+      <c r="E61" s="39"/>
+      <c r="F61" s="40"/>
       <c r="G61" s="11"/>
       <c r="H61" s="24"/>
       <c r="I61" s="24"/>
@@ -1608,16 +1608,16 @@
       <c r="L61" s="24"/>
       <c r="M61" s="7"/>
       <c r="N61" s="24"/>
-      <c r="O61" s="54"/>
-      <c r="P61" s="51"/>
-      <c r="Q61" s="51"/>
+      <c r="O61" s="26"/>
+      <c r="P61" s="37"/>
+      <c r="Q61" s="37"/>
     </row>
     <row r="62" spans="2:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="23"/>
       <c r="C62" s="23"/>
       <c r="D62" s="13"/>
-      <c r="E62" s="31"/>
-      <c r="F62" s="32"/>
+      <c r="E62" s="41"/>
+      <c r="F62" s="42"/>
       <c r="G62" s="11"/>
       <c r="H62" s="24"/>
       <c r="I62" s="24"/>
@@ -1626,13 +1626,13 @@
       <c r="L62" s="24"/>
       <c r="M62" s="7"/>
       <c r="N62" s="24"/>
-      <c r="O62" s="54"/>
-      <c r="P62" s="46"/>
-      <c r="Q62" s="47"/>
+      <c r="O62" s="26"/>
+      <c r="P62" s="44"/>
+      <c r="Q62" s="45"/>
     </row>
     <row r="63" spans="2:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="29"/>
-      <c r="C63" s="30"/>
+      <c r="B63" s="39"/>
+      <c r="C63" s="40"/>
       <c r="D63" s="11"/>
       <c r="E63" s="24"/>
       <c r="F63" s="24"/>
@@ -1644,13 +1644,13 @@
       <c r="L63" s="24"/>
       <c r="M63" s="7"/>
       <c r="N63" s="24"/>
-      <c r="O63" s="54"/>
-      <c r="P63" s="48"/>
-      <c r="Q63" s="49"/>
+      <c r="O63" s="26"/>
+      <c r="P63" s="46"/>
+      <c r="Q63" s="47"/>
     </row>
     <row r="64" spans="2:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="31"/>
-      <c r="C64" s="32"/>
+      <c r="B64" s="41"/>
+      <c r="C64" s="42"/>
       <c r="D64" s="11"/>
       <c r="E64" s="24"/>
       <c r="F64" s="24"/>
@@ -1661,7 +1661,7 @@
       <c r="K64" s="24"/>
       <c r="L64" s="24"/>
       <c r="N64" s="24"/>
-      <c r="O64" s="54"/>
+      <c r="O64" s="26"/>
     </row>
     <row r="65" spans="2:15" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="24"/>
@@ -1674,7 +1674,7 @@
       <c r="K65" s="24"/>
       <c r="L65" s="24"/>
       <c r="N65" s="24"/>
-      <c r="O65" s="54"/>
+      <c r="O65" s="26"/>
     </row>
     <row r="66" spans="2:15" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="24"/>
@@ -1687,11 +1687,11 @@
       <c r="K66" s="24"/>
       <c r="L66" s="24"/>
       <c r="N66" s="24"/>
-      <c r="O66" s="54"/>
+      <c r="O66" s="26"/>
     </row>
     <row r="67" spans="2:15" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="25"/>
-      <c r="C67" s="26"/>
+      <c r="B67" s="32"/>
+      <c r="C67" s="33"/>
       <c r="D67" s="18"/>
       <c r="E67" s="24"/>
       <c r="F67" s="24"/>
@@ -1702,11 +1702,11 @@
       <c r="K67" s="24"/>
       <c r="L67" s="24"/>
       <c r="N67" s="24"/>
-      <c r="O67" s="54"/>
+      <c r="O67" s="26"/>
     </row>
     <row r="68" spans="2:15" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="27"/>
-      <c r="C68" s="28"/>
+      <c r="B68" s="34"/>
+      <c r="C68" s="35"/>
       <c r="D68" s="18"/>
       <c r="E68" s="24"/>
       <c r="F68" s="24"/>
@@ -1717,14 +1717,14 @@
       <c r="K68" s="24"/>
       <c r="L68" s="24"/>
       <c r="N68" s="24"/>
-      <c r="O68" s="54"/>
+      <c r="O68" s="26"/>
     </row>
     <row r="69" spans="2:15" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="23"/>
       <c r="C69" s="23"/>
       <c r="D69" s="21"/>
-      <c r="E69" s="25"/>
-      <c r="F69" s="26"/>
+      <c r="E69" s="32"/>
+      <c r="F69" s="33"/>
       <c r="G69" s="17"/>
       <c r="H69" s="24"/>
       <c r="I69" s="24"/>
@@ -1732,14 +1732,14 @@
       <c r="K69" s="24"/>
       <c r="L69" s="24"/>
       <c r="N69" s="24"/>
-      <c r="O69" s="54"/>
+      <c r="O69" s="26"/>
     </row>
     <row r="70" spans="2:15" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="23"/>
       <c r="C70" s="23"/>
       <c r="D70" s="19"/>
-      <c r="E70" s="27"/>
-      <c r="F70" s="28"/>
+      <c r="E70" s="34"/>
+      <c r="F70" s="35"/>
       <c r="G70" s="17"/>
       <c r="H70" s="24"/>
       <c r="I70" s="24"/>
@@ -1747,11 +1747,11 @@
       <c r="K70" s="24"/>
       <c r="L70" s="24"/>
       <c r="N70" s="24"/>
-      <c r="O70" s="54"/>
+      <c r="O70" s="26"/>
     </row>
     <row r="71" spans="2:15" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="29"/>
-      <c r="C71" s="30"/>
+      <c r="B71" s="39"/>
+      <c r="C71" s="40"/>
       <c r="D71" s="17"/>
       <c r="E71" s="24"/>
       <c r="F71" s="24"/>
@@ -1762,11 +1762,11 @@
       <c r="K71" s="24"/>
       <c r="L71" s="24"/>
       <c r="N71" s="24"/>
-      <c r="O71" s="54"/>
+      <c r="O71" s="26"/>
     </row>
     <row r="72" spans="2:15" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="31"/>
-      <c r="C72" s="32"/>
+      <c r="B72" s="41"/>
+      <c r="C72" s="42"/>
       <c r="D72" s="18"/>
       <c r="E72" s="24"/>
       <c r="F72" s="24"/>
@@ -1777,7 +1777,7 @@
       <c r="K72" s="24"/>
       <c r="L72" s="24"/>
       <c r="N72" s="24"/>
-      <c r="O72" s="54"/>
+      <c r="O72" s="26"/>
     </row>
     <row r="73" spans="2:15" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="23"/>
@@ -1786,13 +1786,13 @@
       <c r="E73" s="24"/>
       <c r="F73" s="24"/>
       <c r="G73" s="22"/>
-      <c r="H73" s="25"/>
-      <c r="I73" s="26"/>
+      <c r="H73" s="32"/>
+      <c r="I73" s="33"/>
       <c r="J73" s="17"/>
       <c r="K73" s="24"/>
       <c r="L73" s="24"/>
       <c r="N73" s="24"/>
-      <c r="O73" s="54"/>
+      <c r="O73" s="26"/>
     </row>
     <row r="74" spans="2:15" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="23"/>
@@ -1801,17 +1801,17 @@
       <c r="E74" s="24"/>
       <c r="F74" s="24"/>
       <c r="G74" s="20"/>
-      <c r="H74" s="27"/>
-      <c r="I74" s="28"/>
+      <c r="H74" s="34"/>
+      <c r="I74" s="35"/>
       <c r="J74" s="17"/>
       <c r="K74" s="24"/>
       <c r="L74" s="24"/>
       <c r="N74" s="24"/>
-      <c r="O74" s="54"/>
+      <c r="O74" s="26"/>
     </row>
     <row r="75" spans="2:15" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="25"/>
-      <c r="C75" s="26"/>
+      <c r="B75" s="32"/>
+      <c r="C75" s="33"/>
       <c r="D75" s="17"/>
       <c r="E75" s="24"/>
       <c r="F75" s="24"/>
@@ -1822,11 +1822,11 @@
       <c r="K75" s="24"/>
       <c r="L75" s="24"/>
       <c r="N75" s="24"/>
-      <c r="O75" s="54"/>
+      <c r="O75" s="26"/>
     </row>
     <row r="76" spans="2:15" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="27"/>
-      <c r="C76" s="28"/>
+      <c r="B76" s="34"/>
+      <c r="C76" s="35"/>
       <c r="D76" s="17"/>
       <c r="E76" s="24"/>
       <c r="F76" s="24"/>
@@ -1837,14 +1837,14 @@
       <c r="K76" s="24"/>
       <c r="L76" s="24"/>
       <c r="N76" s="24"/>
-      <c r="O76" s="54"/>
+      <c r="O76" s="26"/>
     </row>
     <row r="77" spans="2:15" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="23"/>
       <c r="C77" s="23"/>
       <c r="D77" s="21"/>
-      <c r="E77" s="29"/>
-      <c r="F77" s="30"/>
+      <c r="E77" s="39"/>
+      <c r="F77" s="40"/>
       <c r="G77" s="17"/>
       <c r="H77" s="24"/>
       <c r="I77" s="24"/>
@@ -1852,14 +1852,14 @@
       <c r="K77" s="24"/>
       <c r="L77" s="24"/>
       <c r="N77" s="24"/>
-      <c r="O77" s="54"/>
+      <c r="O77" s="26"/>
     </row>
     <row r="78" spans="2:15" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="23"/>
       <c r="C78" s="23"/>
       <c r="D78" s="19"/>
-      <c r="E78" s="31"/>
-      <c r="F78" s="32"/>
+      <c r="E78" s="41"/>
+      <c r="F78" s="42"/>
       <c r="G78" s="17"/>
       <c r="H78" s="24"/>
       <c r="I78" s="24"/>
@@ -1867,11 +1867,11 @@
       <c r="K78" s="24"/>
       <c r="L78" s="24"/>
       <c r="N78" s="24"/>
-      <c r="O78" s="54"/>
+      <c r="O78" s="26"/>
     </row>
     <row r="79" spans="2:15" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="29"/>
-      <c r="C79" s="30"/>
+      <c r="B79" s="39"/>
+      <c r="C79" s="40"/>
       <c r="D79" s="17"/>
       <c r="E79" s="24"/>
       <c r="F79" s="24"/>
@@ -1882,11 +1882,11 @@
       <c r="K79" s="24"/>
       <c r="L79" s="24"/>
       <c r="N79" s="24"/>
-      <c r="O79" s="54"/>
+      <c r="O79" s="26"/>
     </row>
     <row r="80" spans="2:15" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="31"/>
-      <c r="C80" s="32"/>
+      <c r="B80" s="41"/>
+      <c r="C80" s="42"/>
       <c r="D80" s="17"/>
       <c r="E80" s="24"/>
       <c r="F80" s="24"/>
@@ -1897,7 +1897,7 @@
       <c r="K80" s="24"/>
       <c r="L80" s="24"/>
       <c r="N80" s="24"/>
-      <c r="O80" s="54"/>
+      <c r="O80" s="26"/>
     </row>
     <row r="81" spans="2:17" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="23"/>
@@ -1909,14 +1909,14 @@
       <c r="H81" s="24"/>
       <c r="I81" s="24"/>
       <c r="J81" s="22"/>
-      <c r="K81" s="25"/>
-      <c r="L81" s="26"/>
+      <c r="K81" s="32"/>
+      <c r="L81" s="33"/>
       <c r="N81" s="24"/>
-      <c r="O81" s="54"/>
-      <c r="P81" s="44" t="s">
+      <c r="O81" s="26"/>
+      <c r="P81" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="Q81" s="45"/>
+      <c r="Q81" s="36"/>
     </row>
     <row r="82" spans="2:17" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="23"/>
@@ -1928,16 +1928,16 @@
       <c r="H82" s="24"/>
       <c r="I82" s="24"/>
       <c r="J82" s="20"/>
-      <c r="K82" s="27"/>
-      <c r="L82" s="28"/>
+      <c r="K82" s="34"/>
+      <c r="L82" s="35"/>
       <c r="N82" s="24"/>
-      <c r="O82" s="54"/>
-      <c r="P82" s="44"/>
-      <c r="Q82" s="45"/>
+      <c r="O82" s="26"/>
+      <c r="P82" s="43"/>
+      <c r="Q82" s="36"/>
     </row>
     <row r="83" spans="2:17" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="25"/>
-      <c r="C83" s="26"/>
+      <c r="B83" s="32"/>
+      <c r="C83" s="33"/>
       <c r="D83" s="17"/>
       <c r="E83" s="24"/>
       <c r="F83" s="24"/>
@@ -1949,11 +1949,11 @@
       <c r="L83" s="24"/>
       <c r="M83" s="4"/>
       <c r="N83" s="24"/>
-      <c r="O83" s="54"/>
+      <c r="O83" s="26"/>
     </row>
     <row r="84" spans="2:17" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="27"/>
-      <c r="C84" s="28"/>
+      <c r="B84" s="34"/>
+      <c r="C84" s="35"/>
       <c r="D84" s="17"/>
       <c r="E84" s="24"/>
       <c r="F84" s="24"/>
@@ -1965,14 +1965,14 @@
       <c r="L84" s="24"/>
       <c r="M84" s="4"/>
       <c r="N84" s="24"/>
-      <c r="O84" s="54"/>
+      <c r="O84" s="26"/>
     </row>
     <row r="85" spans="2:17" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="23"/>
       <c r="C85" s="23"/>
       <c r="D85" s="21"/>
-      <c r="E85" s="25"/>
-      <c r="F85" s="26"/>
+      <c r="E85" s="32"/>
+      <c r="F85" s="33"/>
       <c r="G85" s="17"/>
       <c r="H85" s="24"/>
       <c r="I85" s="24"/>
@@ -1981,14 +1981,14 @@
       <c r="L85" s="24"/>
       <c r="M85" s="4"/>
       <c r="N85" s="24"/>
-      <c r="O85" s="54"/>
+      <c r="O85" s="26"/>
     </row>
     <row r="86" spans="2:17" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="23"/>
       <c r="C86" s="23"/>
       <c r="D86" s="19"/>
-      <c r="E86" s="27"/>
-      <c r="F86" s="28"/>
+      <c r="E86" s="34"/>
+      <c r="F86" s="35"/>
       <c r="G86" s="17"/>
       <c r="H86" s="24"/>
       <c r="I86" s="24"/>
@@ -1997,11 +1997,11 @@
       <c r="L86" s="24"/>
       <c r="M86" s="4"/>
       <c r="N86" s="24"/>
-      <c r="O86" s="54"/>
+      <c r="O86" s="26"/>
     </row>
     <row r="87" spans="2:17" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="29"/>
-      <c r="C87" s="30"/>
+      <c r="B87" s="39"/>
+      <c r="C87" s="40"/>
       <c r="D87" s="17"/>
       <c r="E87" s="24"/>
       <c r="F87" s="24"/>
@@ -2013,11 +2013,11 @@
       <c r="L87" s="24"/>
       <c r="M87" s="4"/>
       <c r="N87" s="24"/>
-      <c r="O87" s="54"/>
+      <c r="O87" s="26"/>
     </row>
     <row r="88" spans="2:17" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="31"/>
-      <c r="C88" s="32"/>
+      <c r="B88" s="41"/>
+      <c r="C88" s="42"/>
       <c r="D88" s="17"/>
       <c r="E88" s="24"/>
       <c r="F88" s="24"/>
@@ -2029,7 +2029,7 @@
       <c r="L88" s="24"/>
       <c r="M88" s="4"/>
       <c r="N88" s="24"/>
-      <c r="O88" s="54"/>
+      <c r="O88" s="26"/>
     </row>
     <row r="89" spans="2:17" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="23"/>
@@ -2038,14 +2038,14 @@
       <c r="E89" s="24"/>
       <c r="F89" s="24"/>
       <c r="G89" s="22"/>
-      <c r="H89" s="29"/>
-      <c r="I89" s="30"/>
+      <c r="H89" s="39"/>
+      <c r="I89" s="40"/>
       <c r="J89" s="17"/>
       <c r="K89" s="24"/>
       <c r="L89" s="24"/>
       <c r="M89" s="4"/>
       <c r="N89" s="24"/>
-      <c r="O89" s="54"/>
+      <c r="O89" s="26"/>
     </row>
     <row r="90" spans="2:17" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="23"/>
@@ -2054,18 +2054,18 @@
       <c r="E90" s="24"/>
       <c r="F90" s="24"/>
       <c r="G90" s="20"/>
-      <c r="H90" s="31"/>
-      <c r="I90" s="32"/>
+      <c r="H90" s="41"/>
+      <c r="I90" s="42"/>
       <c r="J90" s="17"/>
       <c r="K90" s="24"/>
       <c r="L90" s="24"/>
       <c r="M90" s="4"/>
       <c r="N90" s="24"/>
-      <c r="O90" s="54"/>
+      <c r="O90" s="26"/>
     </row>
     <row r="91" spans="2:17" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="25"/>
-      <c r="C91" s="26"/>
+      <c r="B91" s="32"/>
+      <c r="C91" s="33"/>
       <c r="D91" s="17"/>
       <c r="E91" s="24"/>
       <c r="F91" s="24"/>
@@ -2077,11 +2077,11 @@
       <c r="L91" s="24"/>
       <c r="M91" s="4"/>
       <c r="N91" s="24"/>
-      <c r="O91" s="54"/>
+      <c r="O91" s="26"/>
     </row>
     <row r="92" spans="2:17" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="27"/>
-      <c r="C92" s="28"/>
+      <c r="B92" s="34"/>
+      <c r="C92" s="35"/>
       <c r="D92" s="17"/>
       <c r="E92" s="24"/>
       <c r="F92" s="24"/>
@@ -2093,14 +2093,14 @@
       <c r="L92" s="24"/>
       <c r="M92" s="4"/>
       <c r="N92" s="24"/>
-      <c r="O92" s="54"/>
+      <c r="O92" s="26"/>
     </row>
     <row r="93" spans="2:17" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="23"/>
       <c r="C93" s="23"/>
       <c r="D93" s="21"/>
-      <c r="E93" s="29"/>
-      <c r="F93" s="30"/>
+      <c r="E93" s="39"/>
+      <c r="F93" s="40"/>
       <c r="G93" s="17"/>
       <c r="H93" s="24"/>
       <c r="I93" s="24"/>
@@ -2109,14 +2109,14 @@
       <c r="L93" s="24"/>
       <c r="M93" s="4"/>
       <c r="N93" s="24"/>
-      <c r="O93" s="54"/>
+      <c r="O93" s="26"/>
     </row>
     <row r="94" spans="2:17" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="23"/>
       <c r="C94" s="23"/>
       <c r="D94" s="19"/>
-      <c r="E94" s="31"/>
-      <c r="F94" s="32"/>
+      <c r="E94" s="41"/>
+      <c r="F94" s="42"/>
       <c r="G94" s="17"/>
       <c r="H94" s="24"/>
       <c r="I94" s="24"/>
@@ -2124,12 +2124,12 @@
       <c r="K94" s="24"/>
       <c r="L94" s="24"/>
       <c r="M94" s="4"/>
-      <c r="N94" s="55"/>
-      <c r="O94" s="54"/>
+      <c r="N94" s="27"/>
+      <c r="O94" s="26"/>
     </row>
     <row r="95" spans="2:17" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="29"/>
-      <c r="C95" s="30"/>
+      <c r="B95" s="39"/>
+      <c r="C95" s="40"/>
       <c r="D95" s="17"/>
       <c r="E95" s="24"/>
       <c r="F95" s="24"/>
@@ -2140,12 +2140,12 @@
       <c r="K95" s="24"/>
       <c r="L95" s="24"/>
       <c r="M95" s="4"/>
-      <c r="N95" s="55"/>
-      <c r="O95" s="54"/>
+      <c r="N95" s="27"/>
+      <c r="O95" s="26"/>
     </row>
     <row r="96" spans="2:17" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="31"/>
-      <c r="C96" s="32"/>
+      <c r="B96" s="41"/>
+      <c r="C96" s="42"/>
       <c r="D96" s="17"/>
       <c r="E96" s="24"/>
       <c r="F96" s="24"/>
@@ -2156,8 +2156,8 @@
       <c r="K96" s="24"/>
       <c r="L96" s="24"/>
       <c r="M96" s="4"/>
-      <c r="N96" s="56"/>
-      <c r="O96" s="57"/>
+      <c r="N96" s="28"/>
+      <c r="O96" s="29"/>
     </row>
     <row r="97" spans="2:15" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="23"/>
@@ -2172,8 +2172,8 @@
       <c r="K97" s="24"/>
       <c r="L97" s="24"/>
       <c r="M97" s="5"/>
-      <c r="N97" s="29"/>
-      <c r="O97" s="30"/>
+      <c r="N97" s="39"/>
+      <c r="O97" s="40"/>
     </row>
     <row r="98" spans="2:15" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="23"/>
@@ -2188,12 +2188,12 @@
       <c r="K98" s="24"/>
       <c r="L98" s="24"/>
       <c r="M98" s="4"/>
-      <c r="N98" s="31"/>
-      <c r="O98" s="32"/>
+      <c r="N98" s="41"/>
+      <c r="O98" s="42"/>
     </row>
     <row r="99" spans="2:15" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="25"/>
-      <c r="C99" s="26"/>
+      <c r="B99" s="32"/>
+      <c r="C99" s="33"/>
       <c r="D99" s="17"/>
       <c r="E99" s="24"/>
       <c r="F99" s="24"/>
@@ -2206,8 +2206,8 @@
       <c r="M99" s="4"/>
     </row>
     <row r="100" spans="2:15" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="27"/>
-      <c r="C100" s="28"/>
+      <c r="B100" s="34"/>
+      <c r="C100" s="35"/>
       <c r="D100" s="17"/>
       <c r="E100" s="24"/>
       <c r="F100" s="24"/>
@@ -2223,8 +2223,8 @@
       <c r="B101" s="23"/>
       <c r="C101" s="23"/>
       <c r="D101" s="21"/>
-      <c r="E101" s="25"/>
-      <c r="F101" s="26"/>
+      <c r="E101" s="32"/>
+      <c r="F101" s="33"/>
       <c r="G101" s="17"/>
       <c r="H101" s="24"/>
       <c r="I101" s="24"/>
@@ -2237,8 +2237,8 @@
       <c r="B102" s="23"/>
       <c r="C102" s="23"/>
       <c r="D102" s="19"/>
-      <c r="E102" s="27"/>
-      <c r="F102" s="28"/>
+      <c r="E102" s="34"/>
+      <c r="F102" s="35"/>
       <c r="G102" s="17"/>
       <c r="H102" s="24"/>
       <c r="I102" s="24"/>
@@ -2248,8 +2248,8 @@
       <c r="M102" s="4"/>
     </row>
     <row r="103" spans="2:15" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="29"/>
-      <c r="C103" s="30"/>
+      <c r="B103" s="39"/>
+      <c r="C103" s="40"/>
       <c r="D103" s="17"/>
       <c r="E103" s="24"/>
       <c r="F103" s="24"/>
@@ -2262,8 +2262,8 @@
       <c r="M103" s="4"/>
     </row>
     <row r="104" spans="2:15" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="31"/>
-      <c r="C104" s="32"/>
+      <c r="B104" s="41"/>
+      <c r="C104" s="42"/>
       <c r="D104" s="17"/>
       <c r="E104" s="24"/>
       <c r="F104" s="24"/>
@@ -2282,8 +2282,8 @@
       <c r="E105" s="24"/>
       <c r="F105" s="24"/>
       <c r="G105" s="22"/>
-      <c r="H105" s="25"/>
-      <c r="I105" s="26"/>
+      <c r="H105" s="32"/>
+      <c r="I105" s="33"/>
       <c r="J105" s="17"/>
       <c r="K105" s="24"/>
       <c r="L105" s="24"/>
@@ -2296,16 +2296,16 @@
       <c r="E106" s="24"/>
       <c r="F106" s="24"/>
       <c r="G106" s="20"/>
-      <c r="H106" s="27"/>
-      <c r="I106" s="28"/>
+      <c r="H106" s="34"/>
+      <c r="I106" s="35"/>
       <c r="J106" s="17"/>
       <c r="K106" s="24"/>
       <c r="L106" s="24"/>
       <c r="M106" s="4"/>
     </row>
     <row r="107" spans="2:15" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="25"/>
-      <c r="C107" s="26"/>
+      <c r="B107" s="32"/>
+      <c r="C107" s="33"/>
       <c r="D107" s="17"/>
       <c r="E107" s="24"/>
       <c r="F107" s="24"/>
@@ -2318,8 +2318,8 @@
       <c r="M107" s="4"/>
     </row>
     <row r="108" spans="2:15" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="27"/>
-      <c r="C108" s="28"/>
+      <c r="B108" s="34"/>
+      <c r="C108" s="35"/>
       <c r="D108" s="17"/>
       <c r="E108" s="24"/>
       <c r="F108" s="24"/>
@@ -2335,8 +2335,8 @@
       <c r="B109" s="23"/>
       <c r="C109" s="23"/>
       <c r="D109" s="21"/>
-      <c r="E109" s="29"/>
-      <c r="F109" s="30"/>
+      <c r="E109" s="39"/>
+      <c r="F109" s="40"/>
       <c r="G109" s="17"/>
       <c r="H109" s="24"/>
       <c r="I109" s="24"/>
@@ -2349,8 +2349,8 @@
       <c r="B110" s="23"/>
       <c r="C110" s="23"/>
       <c r="D110" s="19"/>
-      <c r="E110" s="31"/>
-      <c r="F110" s="32"/>
+      <c r="E110" s="41"/>
+      <c r="F110" s="42"/>
       <c r="G110" s="17"/>
       <c r="H110" s="24"/>
       <c r="I110" s="24"/>
@@ -2360,8 +2360,8 @@
       <c r="M110" s="4"/>
     </row>
     <row r="111" spans="2:15" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="29"/>
-      <c r="C111" s="30"/>
+      <c r="B111" s="39"/>
+      <c r="C111" s="40"/>
       <c r="D111" s="17"/>
       <c r="E111" s="24"/>
       <c r="F111" s="24"/>
@@ -2374,8 +2374,8 @@
       <c r="M111" s="4"/>
     </row>
     <row r="112" spans="2:15" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="31"/>
-      <c r="C112" s="32"/>
+      <c r="B112" s="41"/>
+      <c r="C112" s="42"/>
       <c r="D112" s="17"/>
       <c r="E112" s="24"/>
       <c r="F112" s="24"/>
@@ -2397,16 +2397,16 @@
       <c r="H113" s="24"/>
       <c r="I113" s="24"/>
       <c r="J113" s="22"/>
-      <c r="K113" s="29"/>
-      <c r="L113" s="30"/>
-      <c r="N113" s="52" t="s">
+      <c r="K113" s="39"/>
+      <c r="L113" s="40"/>
+      <c r="N113" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="O113" s="52"/>
-      <c r="P113" s="45"/>
-      <c r="Q113" s="45"/>
-      <c r="R113" s="45"/>
-      <c r="S113" s="45"/>
+      <c r="O113" s="48"/>
+      <c r="P113" s="36"/>
+      <c r="Q113" s="36"/>
+      <c r="R113" s="36"/>
+      <c r="S113" s="36"/>
     </row>
     <row r="114" spans="2:19" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="23"/>
@@ -2418,18 +2418,18 @@
       <c r="H114" s="24"/>
       <c r="I114" s="24"/>
       <c r="J114" s="20"/>
-      <c r="K114" s="31"/>
-      <c r="L114" s="32"/>
-      <c r="N114" s="52"/>
-      <c r="O114" s="52"/>
-      <c r="P114" s="51"/>
-      <c r="Q114" s="51"/>
-      <c r="R114" s="51"/>
-      <c r="S114" s="51"/>
+      <c r="K114" s="41"/>
+      <c r="L114" s="42"/>
+      <c r="N114" s="48"/>
+      <c r="O114" s="48"/>
+      <c r="P114" s="37"/>
+      <c r="Q114" s="37"/>
+      <c r="R114" s="37"/>
+      <c r="S114" s="37"/>
     </row>
     <row r="115" spans="2:19" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="25"/>
-      <c r="C115" s="26"/>
+      <c r="B115" s="32"/>
+      <c r="C115" s="33"/>
       <c r="D115" s="17"/>
       <c r="E115" s="24"/>
       <c r="F115" s="24"/>
@@ -2445,8 +2445,8 @@
       <c r="S115" s="9"/>
     </row>
     <row r="116" spans="2:19" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="27"/>
-      <c r="C116" s="28"/>
+      <c r="B116" s="34"/>
+      <c r="C116" s="35"/>
       <c r="D116" s="17"/>
       <c r="E116" s="24"/>
       <c r="F116" s="24"/>
@@ -2454,38 +2454,38 @@
       <c r="H116" s="24"/>
       <c r="I116" s="24"/>
       <c r="J116" s="20"/>
-      <c r="N116" s="52" t="s">
+      <c r="N116" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="O116" s="52"/>
-      <c r="P116" s="50"/>
-      <c r="Q116" s="50"/>
-      <c r="R116" s="50"/>
-      <c r="S116" s="50"/>
+      <c r="O116" s="48"/>
+      <c r="P116" s="38"/>
+      <c r="Q116" s="38"/>
+      <c r="R116" s="38"/>
+      <c r="S116" s="38"/>
     </row>
     <row r="117" spans="2:19" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="23"/>
       <c r="C117" s="23"/>
       <c r="D117" s="21"/>
-      <c r="E117" s="25"/>
-      <c r="F117" s="26"/>
+      <c r="E117" s="32"/>
+      <c r="F117" s="33"/>
       <c r="G117" s="17"/>
       <c r="H117" s="24"/>
       <c r="I117" s="24"/>
       <c r="J117" s="20"/>
-      <c r="N117" s="52"/>
-      <c r="O117" s="52"/>
-      <c r="P117" s="51"/>
-      <c r="Q117" s="51"/>
-      <c r="R117" s="51"/>
-      <c r="S117" s="51"/>
+      <c r="N117" s="48"/>
+      <c r="O117" s="48"/>
+      <c r="P117" s="37"/>
+      <c r="Q117" s="37"/>
+      <c r="R117" s="37"/>
+      <c r="S117" s="37"/>
     </row>
     <row r="118" spans="2:19" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="23"/>
       <c r="C118" s="23"/>
       <c r="D118" s="19"/>
-      <c r="E118" s="27"/>
-      <c r="F118" s="28"/>
+      <c r="E118" s="34"/>
+      <c r="F118" s="35"/>
       <c r="G118" s="17"/>
       <c r="H118" s="24"/>
       <c r="I118" s="24"/>
@@ -2498,8 +2498,8 @@
       <c r="S118" s="8"/>
     </row>
     <row r="119" spans="2:19" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="29"/>
-      <c r="C119" s="30"/>
+      <c r="B119" s="39"/>
+      <c r="C119" s="40"/>
       <c r="D119" s="17"/>
       <c r="E119" s="24"/>
       <c r="F119" s="24"/>
@@ -2507,18 +2507,18 @@
       <c r="H119" s="24"/>
       <c r="I119" s="24"/>
       <c r="J119" s="20"/>
-      <c r="N119" s="52" t="s">
+      <c r="N119" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="O119" s="52"/>
-      <c r="P119" s="45"/>
-      <c r="Q119" s="45"/>
-      <c r="R119" s="45"/>
-      <c r="S119" s="45"/>
+      <c r="O119" s="48"/>
+      <c r="P119" s="36"/>
+      <c r="Q119" s="36"/>
+      <c r="R119" s="36"/>
+      <c r="S119" s="36"/>
     </row>
     <row r="120" spans="2:19" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="31"/>
-      <c r="C120" s="32"/>
+      <c r="B120" s="41"/>
+      <c r="C120" s="42"/>
       <c r="D120" s="17"/>
       <c r="E120" s="24"/>
       <c r="F120" s="24"/>
@@ -2526,12 +2526,12 @@
       <c r="H120" s="24"/>
       <c r="I120" s="24"/>
       <c r="J120" s="20"/>
-      <c r="N120" s="52"/>
-      <c r="O120" s="52"/>
-      <c r="P120" s="51"/>
-      <c r="Q120" s="51"/>
-      <c r="R120" s="51"/>
-      <c r="S120" s="51"/>
+      <c r="N120" s="48"/>
+      <c r="O120" s="48"/>
+      <c r="P120" s="37"/>
+      <c r="Q120" s="37"/>
+      <c r="R120" s="37"/>
+      <c r="S120" s="37"/>
     </row>
     <row r="121" spans="2:19" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="23"/>
@@ -2540,8 +2540,8 @@
       <c r="E121" s="24"/>
       <c r="F121" s="24"/>
       <c r="G121" s="22"/>
-      <c r="H121" s="29"/>
-      <c r="I121" s="30"/>
+      <c r="H121" s="39"/>
+      <c r="I121" s="40"/>
       <c r="J121" s="17"/>
       <c r="N121" s="10"/>
       <c r="O121" s="10"/>
@@ -2557,21 +2557,21 @@
       <c r="E122" s="24"/>
       <c r="F122" s="24"/>
       <c r="G122" s="20"/>
-      <c r="H122" s="31"/>
-      <c r="I122" s="32"/>
+      <c r="H122" s="41"/>
+      <c r="I122" s="42"/>
       <c r="J122" s="17"/>
-      <c r="N122" s="52" t="s">
+      <c r="N122" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="O122" s="52"/>
-      <c r="P122" s="45"/>
-      <c r="Q122" s="45"/>
-      <c r="R122" s="45"/>
-      <c r="S122" s="45"/>
+      <c r="O122" s="48"/>
+      <c r="P122" s="36"/>
+      <c r="Q122" s="36"/>
+      <c r="R122" s="36"/>
+      <c r="S122" s="36"/>
     </row>
     <row r="123" spans="2:19" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="25"/>
-      <c r="C123" s="26"/>
+      <c r="B123" s="32"/>
+      <c r="C123" s="33"/>
       <c r="D123" s="17"/>
       <c r="E123" s="24"/>
       <c r="F123" s="24"/>
@@ -2579,16 +2579,16 @@
       <c r="H123" s="17"/>
       <c r="I123" s="17"/>
       <c r="J123" s="17"/>
-      <c r="N123" s="52"/>
-      <c r="O123" s="52"/>
-      <c r="P123" s="51"/>
-      <c r="Q123" s="51"/>
-      <c r="R123" s="51"/>
-      <c r="S123" s="51"/>
+      <c r="N123" s="48"/>
+      <c r="O123" s="48"/>
+      <c r="P123" s="37"/>
+      <c r="Q123" s="37"/>
+      <c r="R123" s="37"/>
+      <c r="S123" s="37"/>
     </row>
     <row r="124" spans="2:19" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="27"/>
-      <c r="C124" s="28"/>
+      <c r="B124" s="34"/>
+      <c r="C124" s="35"/>
       <c r="D124" s="17"/>
       <c r="E124" s="24"/>
       <c r="F124" s="24"/>
@@ -2601,8 +2601,8 @@
       <c r="B125" s="23"/>
       <c r="C125" s="23"/>
       <c r="D125" s="21"/>
-      <c r="E125" s="29"/>
-      <c r="F125" s="30"/>
+      <c r="E125" s="39"/>
+      <c r="F125" s="40"/>
       <c r="G125" s="17"/>
       <c r="H125" s="17"/>
       <c r="I125" s="17"/>
@@ -2612,16 +2612,16 @@
       <c r="B126" s="23"/>
       <c r="C126" s="23"/>
       <c r="D126" s="19"/>
-      <c r="E126" s="31"/>
-      <c r="F126" s="32"/>
+      <c r="E126" s="41"/>
+      <c r="F126" s="42"/>
       <c r="G126" s="17"/>
       <c r="H126" s="17"/>
       <c r="I126" s="17"/>
       <c r="J126" s="17"/>
     </row>
     <row r="127" spans="2:19" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="29"/>
-      <c r="C127" s="30"/>
+      <c r="B127" s="39"/>
+      <c r="C127" s="40"/>
       <c r="D127" s="17"/>
       <c r="E127" s="17"/>
       <c r="F127" s="17"/>
@@ -2631,8 +2631,8 @@
       <c r="J127" s="17"/>
     </row>
     <row r="128" spans="2:19" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="31"/>
-      <c r="C128" s="32"/>
+      <c r="B128" s="41"/>
+      <c r="C128" s="42"/>
       <c r="D128" s="17"/>
       <c r="E128" s="17"/>
       <c r="F128" s="17"/>
@@ -2722,6 +2722,125 @@
     <row r="207" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="143">
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="K6:Q9"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="N1:O2"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="P81:Q82"/>
+    <mergeCell ref="P49:Q50"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="P60:Q61"/>
+    <mergeCell ref="N113:O114"/>
+    <mergeCell ref="N116:O117"/>
+    <mergeCell ref="N119:O120"/>
+    <mergeCell ref="N122:O123"/>
+    <mergeCell ref="H122:I122"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="E125:F125"/>
+    <mergeCell ref="E126:F126"/>
+    <mergeCell ref="E118:F118"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="H121:I121"/>
+    <mergeCell ref="K113:L113"/>
+    <mergeCell ref="K114:L114"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="E117:F117"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="E109:F109"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
     <mergeCell ref="K1:L2"/>
     <mergeCell ref="N33:O33"/>
     <mergeCell ref="N34:O34"/>
@@ -2746,125 +2865,6 @@
     <mergeCell ref="B83:C83"/>
     <mergeCell ref="H74:I74"/>
     <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="E93:F93"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="H105:I105"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="N98:O98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="E102:F102"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="N97:O97"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="E117:F117"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="E109:F109"/>
-    <mergeCell ref="E110:F110"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="N1:O2"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="B128:C128"/>
-    <mergeCell ref="P81:Q82"/>
-    <mergeCell ref="P49:Q50"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="P60:Q61"/>
-    <mergeCell ref="N113:O114"/>
-    <mergeCell ref="N116:O117"/>
-    <mergeCell ref="N119:O120"/>
-    <mergeCell ref="N122:O123"/>
-    <mergeCell ref="H122:I122"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="E125:F125"/>
-    <mergeCell ref="E126:F126"/>
-    <mergeCell ref="E118:F118"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="H121:I121"/>
-    <mergeCell ref="K113:L113"/>
-    <mergeCell ref="K114:L114"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="K6:Q9"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B31:C31"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/templates/32.xlsx
+++ b/templates/32.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Winner</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>Round of 32</t>
+  </si>
+  <si>
+    <t>3rd Place</t>
   </si>
 </sst>
 </file>
@@ -102,7 +105,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -214,11 +217,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -256,98 +290,101 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -652,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q89" sqref="Q89"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U100" sqref="U100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -666,52 +703,52 @@
   <sheetData>
     <row r="1" spans="1:17" s="3" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="30"/>
+      <c r="C1" s="45"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="30"/>
+      <c r="F1" s="45"/>
       <c r="G1" s="8"/>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="30"/>
+      <c r="I1" s="45"/>
       <c r="J1" s="8"/>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="30"/>
+      <c r="L1" s="45"/>
       <c r="M1" s="8"/>
-      <c r="N1" s="30" t="s">
+      <c r="N1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="30"/>
+      <c r="O1" s="45"/>
     </row>
     <row r="2" spans="1:17" s="3" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
       <c r="G2" s="8"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
       <c r="J2" s="8"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
       <c r="M2" s="8"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
     </row>
     <row r="3" spans="1:17" s="3" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="33"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="29"/>
       <c r="D3" s="12"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
@@ -722,8 +759,8 @@
     </row>
     <row r="4" spans="1:17" s="3" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="35"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="31"/>
       <c r="D4" s="12"/>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
@@ -737,8 +774,8 @@
       <c r="B5" s="23"/>
       <c r="C5" s="23"/>
       <c r="D5" s="15"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="33"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="29"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
@@ -749,23 +786,23 @@
       <c r="B6" s="23"/>
       <c r="C6" s="23"/>
       <c r="D6" s="13"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="35"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="31"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="50"/>
-      <c r="O6" s="50"/>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="51"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="38"/>
     </row>
     <row r="7" spans="1:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="39"/>
-      <c r="C7" s="40"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="33"/>
       <c r="D7" s="11"/>
       <c r="E7" s="24"/>
       <c r="F7" s="24"/>
@@ -773,18 +810,18 @@
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="54"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="41"/>
     </row>
     <row r="8" spans="1:17" s="1" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="42"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="35"/>
       <c r="D8" s="12"/>
       <c r="E8" s="24"/>
       <c r="F8" s="24"/>
@@ -792,13 +829,13 @@
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="54"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="41"/>
     </row>
     <row r="9" spans="1:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="23"/>
@@ -807,16 +844,16 @@
       <c r="E9" s="24"/>
       <c r="F9" s="24"/>
       <c r="G9" s="16"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="33"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="29"/>
       <c r="J9" s="11"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="56"/>
-      <c r="P9" s="56"/>
-      <c r="Q9" s="57"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="44"/>
     </row>
     <row r="10" spans="1:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="23"/>
@@ -825,13 +862,13 @@
       <c r="E10" s="24"/>
       <c r="F10" s="24"/>
       <c r="G10" s="14"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="35"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="31"/>
       <c r="J10" s="11"/>
     </row>
     <row r="11" spans="1:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="32"/>
-      <c r="C11" s="33"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="29"/>
       <c r="D11" s="11"/>
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
@@ -841,8 +878,8 @@
       <c r="J11" s="14"/>
     </row>
     <row r="12" spans="1:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="34"/>
-      <c r="C12" s="35"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="31"/>
       <c r="D12" s="11"/>
       <c r="E12" s="24"/>
       <c r="F12" s="24"/>
@@ -855,8 +892,8 @@
       <c r="B13" s="23"/>
       <c r="C13" s="23"/>
       <c r="D13" s="15"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="40"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="33"/>
       <c r="G13" s="11"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
@@ -866,16 +903,16 @@
       <c r="B14" s="23"/>
       <c r="C14" s="23"/>
       <c r="D14" s="13"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="42"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="35"/>
       <c r="G14" s="11"/>
       <c r="H14" s="24"/>
       <c r="I14" s="24"/>
       <c r="J14" s="14"/>
     </row>
     <row r="15" spans="1:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="39"/>
-      <c r="C15" s="40"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="33"/>
       <c r="D15" s="11"/>
       <c r="E15" s="24"/>
       <c r="F15" s="24"/>
@@ -885,8 +922,8 @@
       <c r="J15" s="14"/>
     </row>
     <row r="16" spans="1:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="41"/>
-      <c r="C16" s="42"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="35"/>
       <c r="D16" s="11"/>
       <c r="E16" s="24"/>
       <c r="F16" s="24"/>
@@ -905,8 +942,8 @@
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
       <c r="J17" s="16"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="33"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="29"/>
     </row>
     <row r="18" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="23"/>
@@ -918,12 +955,12 @@
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
       <c r="J18" s="14"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="35"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="31"/>
     </row>
     <row r="19" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="32"/>
-      <c r="C19" s="33"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="29"/>
       <c r="D19" s="11"/>
       <c r="E19" s="24"/>
       <c r="F19" s="24"/>
@@ -936,8 +973,8 @@
       <c r="M19" s="4"/>
     </row>
     <row r="20" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="34"/>
-      <c r="C20" s="35"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="31"/>
       <c r="D20" s="11"/>
       <c r="E20" s="24"/>
       <c r="F20" s="24"/>
@@ -953,8 +990,8 @@
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
       <c r="D21" s="15"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="33"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="29"/>
       <c r="G21" s="11"/>
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
@@ -967,8 +1004,8 @@
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
       <c r="D22" s="13"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="35"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="31"/>
       <c r="G22" s="11"/>
       <c r="H22" s="24"/>
       <c r="I22" s="24"/>
@@ -978,8 +1015,8 @@
       <c r="M22" s="4"/>
     </row>
     <row r="23" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="39"/>
-      <c r="C23" s="40"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="33"/>
       <c r="D23" s="11"/>
       <c r="E23" s="24"/>
       <c r="F23" s="24"/>
@@ -992,8 +1029,8 @@
       <c r="M23" s="4"/>
     </row>
     <row r="24" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="41"/>
-      <c r="C24" s="42"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="35"/>
       <c r="D24" s="11"/>
       <c r="E24" s="24"/>
       <c r="F24" s="24"/>
@@ -1012,8 +1049,8 @@
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
       <c r="G25" s="16"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="40"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="33"/>
       <c r="J25" s="11"/>
       <c r="K25" s="24"/>
       <c r="L25" s="24"/>
@@ -1026,16 +1063,16 @@
       <c r="E26" s="24"/>
       <c r="F26" s="24"/>
       <c r="G26" s="14"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="42"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="35"/>
       <c r="J26" s="11"/>
       <c r="K26" s="24"/>
       <c r="L26" s="24"/>
       <c r="M26" s="4"/>
     </row>
     <row r="27" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="32"/>
-      <c r="C27" s="33"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="29"/>
       <c r="D27" s="11"/>
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
@@ -1048,8 +1085,8 @@
       <c r="M27" s="4"/>
     </row>
     <row r="28" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="34"/>
-      <c r="C28" s="35"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="31"/>
       <c r="D28" s="11"/>
       <c r="E28" s="24"/>
       <c r="F28" s="24"/>
@@ -1065,8 +1102,8 @@
       <c r="B29" s="23"/>
       <c r="C29" s="23"/>
       <c r="D29" s="15"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="40"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="33"/>
       <c r="G29" s="11"/>
       <c r="H29" s="24"/>
       <c r="I29" s="24"/>
@@ -1079,8 +1116,8 @@
       <c r="B30" s="23"/>
       <c r="C30" s="23"/>
       <c r="D30" s="13"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="42"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="35"/>
       <c r="G30" s="11"/>
       <c r="H30" s="24"/>
       <c r="I30" s="24"/>
@@ -1092,8 +1129,8 @@
       <c r="O30" s="6"/>
     </row>
     <row r="31" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="39"/>
-      <c r="C31" s="40"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="33"/>
       <c r="D31" s="11"/>
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
@@ -1108,8 +1145,8 @@
       <c r="O31" s="7"/>
     </row>
     <row r="32" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="41"/>
-      <c r="C32" s="42"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="35"/>
       <c r="D32" s="11"/>
       <c r="E32" s="24"/>
       <c r="F32" s="24"/>
@@ -1136,8 +1173,8 @@
       <c r="K33" s="24"/>
       <c r="L33" s="24"/>
       <c r="M33" s="5"/>
-      <c r="N33" s="32"/>
-      <c r="O33" s="33"/>
+      <c r="N33" s="28"/>
+      <c r="O33" s="29"/>
     </row>
     <row r="34" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="23"/>
@@ -1152,12 +1189,12 @@
       <c r="K34" s="24"/>
       <c r="L34" s="24"/>
       <c r="M34" s="4"/>
-      <c r="N34" s="34"/>
-      <c r="O34" s="35"/>
+      <c r="N34" s="30"/>
+      <c r="O34" s="31"/>
     </row>
     <row r="35" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="32"/>
-      <c r="C35" s="33"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="29"/>
       <c r="D35" s="11"/>
       <c r="E35" s="24"/>
       <c r="F35" s="24"/>
@@ -1168,12 +1205,12 @@
       <c r="K35" s="24"/>
       <c r="L35" s="24"/>
       <c r="M35" s="4"/>
-      <c r="N35" s="24"/>
+      <c r="N35" s="56"/>
       <c r="O35" s="25"/>
     </row>
     <row r="36" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="34"/>
-      <c r="C36" s="35"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="31"/>
       <c r="D36" s="11"/>
       <c r="E36" s="24"/>
       <c r="F36" s="24"/>
@@ -1184,15 +1221,15 @@
       <c r="K36" s="24"/>
       <c r="L36" s="24"/>
       <c r="M36" s="4"/>
-      <c r="N36" s="24"/>
+      <c r="N36" s="57"/>
       <c r="O36" s="26"/>
     </row>
     <row r="37" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="23"/>
       <c r="C37" s="23"/>
       <c r="D37" s="15"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="33"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="29"/>
       <c r="G37" s="11"/>
       <c r="H37" s="24"/>
       <c r="I37" s="24"/>
@@ -1200,15 +1237,15 @@
       <c r="K37" s="24"/>
       <c r="L37" s="24"/>
       <c r="M37" s="4"/>
-      <c r="N37" s="24"/>
+      <c r="N37" s="57"/>
       <c r="O37" s="26"/>
     </row>
     <row r="38" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="23"/>
       <c r="C38" s="23"/>
       <c r="D38" s="13"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="35"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="31"/>
       <c r="G38" s="11"/>
       <c r="H38" s="24"/>
       <c r="I38" s="24"/>
@@ -1216,12 +1253,12 @@
       <c r="K38" s="24"/>
       <c r="L38" s="24"/>
       <c r="M38" s="4"/>
-      <c r="N38" s="24"/>
+      <c r="N38" s="57"/>
       <c r="O38" s="26"/>
     </row>
     <row r="39" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="39"/>
-      <c r="C39" s="40"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="33"/>
       <c r="D39" s="11"/>
       <c r="E39" s="24"/>
       <c r="F39" s="24"/>
@@ -1232,12 +1269,12 @@
       <c r="K39" s="24"/>
       <c r="L39" s="24"/>
       <c r="M39" s="4"/>
-      <c r="N39" s="24"/>
+      <c r="N39" s="57"/>
       <c r="O39" s="26"/>
     </row>
     <row r="40" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="41"/>
-      <c r="C40" s="42"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="35"/>
       <c r="D40" s="11"/>
       <c r="E40" s="24"/>
       <c r="F40" s="24"/>
@@ -1248,7 +1285,7 @@
       <c r="K40" s="24"/>
       <c r="L40" s="24"/>
       <c r="M40" s="4"/>
-      <c r="N40" s="24"/>
+      <c r="N40" s="57"/>
       <c r="O40" s="26"/>
     </row>
     <row r="41" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1258,13 +1295,13 @@
       <c r="E41" s="24"/>
       <c r="F41" s="24"/>
       <c r="G41" s="16"/>
-      <c r="H41" s="32"/>
-      <c r="I41" s="33"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="29"/>
       <c r="J41" s="11"/>
       <c r="K41" s="24"/>
       <c r="L41" s="24"/>
       <c r="M41" s="4"/>
-      <c r="N41" s="24"/>
+      <c r="N41" s="57"/>
       <c r="O41" s="26"/>
     </row>
     <row r="42" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1274,18 +1311,18 @@
       <c r="E42" s="24"/>
       <c r="F42" s="24"/>
       <c r="G42" s="14"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="35"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="31"/>
       <c r="J42" s="11"/>
       <c r="K42" s="24"/>
       <c r="L42" s="24"/>
       <c r="M42" s="4"/>
-      <c r="N42" s="24"/>
+      <c r="N42" s="57"/>
       <c r="O42" s="26"/>
     </row>
     <row r="43" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="32"/>
-      <c r="C43" s="33"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="29"/>
       <c r="D43" s="11"/>
       <c r="E43" s="24"/>
       <c r="F43" s="24"/>
@@ -1296,12 +1333,12 @@
       <c r="K43" s="24"/>
       <c r="L43" s="24"/>
       <c r="M43" s="4"/>
-      <c r="N43" s="24"/>
+      <c r="N43" s="57"/>
       <c r="O43" s="26"/>
     </row>
     <row r="44" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="34"/>
-      <c r="C44" s="35"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="31"/>
       <c r="D44" s="11"/>
       <c r="E44" s="24"/>
       <c r="F44" s="24"/>
@@ -1312,15 +1349,15 @@
       <c r="K44" s="24"/>
       <c r="L44" s="24"/>
       <c r="M44" s="4"/>
-      <c r="N44" s="24"/>
+      <c r="N44" s="57"/>
       <c r="O44" s="26"/>
     </row>
     <row r="45" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="23"/>
       <c r="C45" s="23"/>
       <c r="D45" s="15"/>
-      <c r="E45" s="39"/>
-      <c r="F45" s="40"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="33"/>
       <c r="G45" s="11"/>
       <c r="H45" s="24"/>
       <c r="I45" s="24"/>
@@ -1328,15 +1365,15 @@
       <c r="K45" s="24"/>
       <c r="L45" s="24"/>
       <c r="M45" s="4"/>
-      <c r="N45" s="24"/>
+      <c r="N45" s="57"/>
       <c r="O45" s="26"/>
     </row>
     <row r="46" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="23"/>
       <c r="C46" s="23"/>
       <c r="D46" s="13"/>
-      <c r="E46" s="41"/>
-      <c r="F46" s="42"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="35"/>
       <c r="G46" s="11"/>
       <c r="H46" s="24"/>
       <c r="I46" s="24"/>
@@ -1344,12 +1381,12 @@
       <c r="K46" s="24"/>
       <c r="L46" s="24"/>
       <c r="M46" s="4"/>
-      <c r="N46" s="24"/>
+      <c r="N46" s="57"/>
       <c r="O46" s="26"/>
     </row>
     <row r="47" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="39"/>
-      <c r="C47" s="40"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="33"/>
       <c r="D47" s="11"/>
       <c r="E47" s="24"/>
       <c r="F47" s="24"/>
@@ -1360,12 +1397,12 @@
       <c r="K47" s="24"/>
       <c r="L47" s="24"/>
       <c r="M47" s="4"/>
-      <c r="N47" s="24"/>
+      <c r="N47" s="57"/>
       <c r="O47" s="26"/>
     </row>
     <row r="48" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="41"/>
-      <c r="C48" s="42"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="35"/>
       <c r="D48" s="11"/>
       <c r="E48" s="24"/>
       <c r="F48" s="24"/>
@@ -1376,7 +1413,7 @@
       <c r="K48" s="24"/>
       <c r="L48" s="24"/>
       <c r="M48" s="4"/>
-      <c r="N48" s="24"/>
+      <c r="N48" s="57"/>
       <c r="O48" s="26"/>
     </row>
     <row r="49" spans="2:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1389,14 +1426,14 @@
       <c r="H49" s="24"/>
       <c r="I49" s="24"/>
       <c r="J49" s="16"/>
-      <c r="K49" s="39"/>
-      <c r="L49" s="40"/>
-      <c r="N49" s="24"/>
+      <c r="K49" s="32"/>
+      <c r="L49" s="33"/>
+      <c r="N49" s="57"/>
       <c r="O49" s="26"/>
-      <c r="P49" s="43" t="s">
+      <c r="P49" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="Q49" s="36"/>
+      <c r="Q49" s="48"/>
     </row>
     <row r="50" spans="2:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="23"/>
@@ -1408,16 +1445,16 @@
       <c r="H50" s="24"/>
       <c r="I50" s="24"/>
       <c r="J50" s="14"/>
-      <c r="K50" s="41"/>
-      <c r="L50" s="42"/>
-      <c r="N50" s="24"/>
+      <c r="K50" s="34"/>
+      <c r="L50" s="35"/>
+      <c r="N50" s="57"/>
       <c r="O50" s="26"/>
-      <c r="P50" s="43"/>
-      <c r="Q50" s="36"/>
+      <c r="P50" s="47"/>
+      <c r="Q50" s="48"/>
     </row>
     <row r="51" spans="2:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="32"/>
-      <c r="C51" s="33"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="29"/>
       <c r="D51" s="11"/>
       <c r="E51" s="24"/>
       <c r="F51" s="24"/>
@@ -1427,12 +1464,12 @@
       <c r="J51" s="14"/>
       <c r="K51" s="24"/>
       <c r="L51" s="24"/>
-      <c r="N51" s="24"/>
+      <c r="N51" s="57"/>
       <c r="O51" s="26"/>
     </row>
     <row r="52" spans="2:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="34"/>
-      <c r="C52" s="35"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="31"/>
       <c r="D52" s="11"/>
       <c r="E52" s="24"/>
       <c r="F52" s="24"/>
@@ -1443,7 +1480,7 @@
       <c r="K52" s="24"/>
       <c r="L52" s="24"/>
       <c r="M52" s="7"/>
-      <c r="N52" s="24"/>
+      <c r="N52" s="57"/>
       <c r="O52" s="26"/>
       <c r="P52" s="7"/>
       <c r="Q52" s="7"/>
@@ -1452,8 +1489,8 @@
       <c r="B53" s="23"/>
       <c r="C53" s="23"/>
       <c r="D53" s="15"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="33"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="29"/>
       <c r="G53" s="11"/>
       <c r="H53" s="24"/>
       <c r="I53" s="24"/>
@@ -1461,7 +1498,7 @@
       <c r="K53" s="24"/>
       <c r="L53" s="24"/>
       <c r="M53" s="7"/>
-      <c r="N53" s="24"/>
+      <c r="N53" s="57"/>
       <c r="O53" s="26"/>
       <c r="P53" s="7"/>
       <c r="Q53" s="7"/>
@@ -1470,8 +1507,8 @@
       <c r="B54" s="23"/>
       <c r="C54" s="23"/>
       <c r="D54" s="13"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="35"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="31"/>
       <c r="G54" s="11"/>
       <c r="H54" s="24"/>
       <c r="I54" s="24"/>
@@ -1479,14 +1516,14 @@
       <c r="K54" s="24"/>
       <c r="L54" s="24"/>
       <c r="M54" s="7"/>
-      <c r="N54" s="24"/>
+      <c r="N54" s="57"/>
       <c r="O54" s="26"/>
       <c r="P54" s="7"/>
       <c r="Q54" s="7"/>
     </row>
     <row r="55" spans="2:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="39"/>
-      <c r="C55" s="40"/>
+      <c r="B55" s="32"/>
+      <c r="C55" s="33"/>
       <c r="D55" s="11"/>
       <c r="E55" s="24"/>
       <c r="F55" s="24"/>
@@ -1497,14 +1534,14 @@
       <c r="K55" s="24"/>
       <c r="L55" s="24"/>
       <c r="M55" s="7"/>
-      <c r="N55" s="24"/>
+      <c r="N55" s="57"/>
       <c r="O55" s="26"/>
       <c r="P55" s="7"/>
       <c r="Q55" s="7"/>
     </row>
     <row r="56" spans="2:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="41"/>
-      <c r="C56" s="42"/>
+      <c r="B56" s="34"/>
+      <c r="C56" s="35"/>
       <c r="D56" s="11"/>
       <c r="E56" s="24"/>
       <c r="F56" s="24"/>
@@ -1515,7 +1552,7 @@
       <c r="K56" s="24"/>
       <c r="L56" s="24"/>
       <c r="M56" s="7"/>
-      <c r="N56" s="24"/>
+      <c r="N56" s="57"/>
       <c r="O56" s="26"/>
       <c r="P56" s="7"/>
       <c r="Q56" s="7"/>
@@ -1527,13 +1564,13 @@
       <c r="E57" s="24"/>
       <c r="F57" s="24"/>
       <c r="G57" s="16"/>
-      <c r="H57" s="39"/>
-      <c r="I57" s="40"/>
+      <c r="H57" s="32"/>
+      <c r="I57" s="33"/>
       <c r="J57" s="11"/>
       <c r="K57" s="24"/>
       <c r="L57" s="24"/>
       <c r="M57" s="7"/>
-      <c r="N57" s="24"/>
+      <c r="N57" s="57"/>
       <c r="O57" s="26"/>
       <c r="P57" s="7"/>
       <c r="Q57" s="7"/>
@@ -1545,20 +1582,20 @@
       <c r="E58" s="24"/>
       <c r="F58" s="24"/>
       <c r="G58" s="14"/>
-      <c r="H58" s="41"/>
-      <c r="I58" s="42"/>
+      <c r="H58" s="34"/>
+      <c r="I58" s="35"/>
       <c r="J58" s="11"/>
       <c r="K58" s="24"/>
       <c r="L58" s="24"/>
       <c r="M58" s="7"/>
-      <c r="N58" s="24"/>
+      <c r="N58" s="57"/>
       <c r="O58" s="26"/>
       <c r="P58" s="7"/>
       <c r="Q58" s="7"/>
     </row>
     <row r="59" spans="2:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="32"/>
-      <c r="C59" s="33"/>
+      <c r="B59" s="28"/>
+      <c r="C59" s="29"/>
       <c r="D59" s="11"/>
       <c r="E59" s="24"/>
       <c r="F59" s="24"/>
@@ -1569,14 +1606,14 @@
       <c r="K59" s="24"/>
       <c r="L59" s="24"/>
       <c r="M59" s="7"/>
-      <c r="N59" s="24"/>
+      <c r="N59" s="57"/>
       <c r="O59" s="26"/>
       <c r="P59" s="7"/>
       <c r="Q59" s="7"/>
     </row>
     <row r="60" spans="2:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="34"/>
-      <c r="C60" s="35"/>
+      <c r="B60" s="30"/>
+      <c r="C60" s="31"/>
       <c r="D60" s="11"/>
       <c r="E60" s="24"/>
       <c r="F60" s="24"/>
@@ -1586,53 +1623,55 @@
       <c r="J60" s="11"/>
       <c r="K60" s="24"/>
       <c r="L60" s="24"/>
-      <c r="M60" s="7"/>
-      <c r="N60" s="24"/>
+      <c r="M60" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="N60" s="53"/>
       <c r="O60" s="26"/>
-      <c r="P60" s="38" t="s">
+      <c r="P60" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="Q60" s="38"/>
+      <c r="Q60" s="53"/>
     </row>
     <row r="61" spans="2:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="23"/>
       <c r="C61" s="23"/>
       <c r="D61" s="15"/>
-      <c r="E61" s="39"/>
-      <c r="F61" s="40"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="33"/>
       <c r="G61" s="11"/>
       <c r="H61" s="24"/>
       <c r="I61" s="24"/>
       <c r="J61" s="11"/>
       <c r="K61" s="24"/>
       <c r="L61" s="24"/>
-      <c r="M61" s="7"/>
-      <c r="N61" s="24"/>
+      <c r="M61" s="54"/>
+      <c r="N61" s="54"/>
       <c r="O61" s="26"/>
-      <c r="P61" s="37"/>
-      <c r="Q61" s="37"/>
+      <c r="P61" s="54"/>
+      <c r="Q61" s="54"/>
     </row>
     <row r="62" spans="2:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="23"/>
       <c r="C62" s="23"/>
       <c r="D62" s="13"/>
-      <c r="E62" s="41"/>
-      <c r="F62" s="42"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="35"/>
       <c r="G62" s="11"/>
       <c r="H62" s="24"/>
       <c r="I62" s="24"/>
       <c r="J62" s="11"/>
       <c r="K62" s="24"/>
       <c r="L62" s="24"/>
-      <c r="M62" s="7"/>
-      <c r="N62" s="24"/>
+      <c r="M62" s="49"/>
+      <c r="N62" s="50"/>
       <c r="O62" s="26"/>
-      <c r="P62" s="44"/>
-      <c r="Q62" s="45"/>
+      <c r="P62" s="49"/>
+      <c r="Q62" s="50"/>
     </row>
     <row r="63" spans="2:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="39"/>
-      <c r="C63" s="40"/>
+      <c r="B63" s="32"/>
+      <c r="C63" s="33"/>
       <c r="D63" s="11"/>
       <c r="E63" s="24"/>
       <c r="F63" s="24"/>
@@ -1642,15 +1681,15 @@
       <c r="J63" s="11"/>
       <c r="K63" s="24"/>
       <c r="L63" s="24"/>
-      <c r="M63" s="7"/>
-      <c r="N63" s="24"/>
+      <c r="M63" s="51"/>
+      <c r="N63" s="52"/>
       <c r="O63" s="26"/>
-      <c r="P63" s="46"/>
-      <c r="Q63" s="47"/>
+      <c r="P63" s="51"/>
+      <c r="Q63" s="52"/>
     </row>
     <row r="64" spans="2:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="41"/>
-      <c r="C64" s="42"/>
+      <c r="B64" s="34"/>
+      <c r="C64" s="35"/>
       <c r="D64" s="11"/>
       <c r="E64" s="24"/>
       <c r="F64" s="24"/>
@@ -1660,7 +1699,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="24"/>
       <c r="L64" s="24"/>
-      <c r="N64" s="24"/>
+      <c r="N64" s="57"/>
       <c r="O64" s="26"/>
     </row>
     <row r="65" spans="2:15" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1673,7 +1712,7 @@
       <c r="I65" s="24"/>
       <c r="K65" s="24"/>
       <c r="L65" s="24"/>
-      <c r="N65" s="24"/>
+      <c r="N65" s="57"/>
       <c r="O65" s="26"/>
     </row>
     <row r="66" spans="2:15" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1686,12 +1725,12 @@
       <c r="I66" s="24"/>
       <c r="K66" s="24"/>
       <c r="L66" s="24"/>
-      <c r="N66" s="24"/>
+      <c r="N66" s="57"/>
       <c r="O66" s="26"/>
     </row>
     <row r="67" spans="2:15" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="32"/>
-      <c r="C67" s="33"/>
+      <c r="B67" s="28"/>
+      <c r="C67" s="29"/>
       <c r="D67" s="18"/>
       <c r="E67" s="24"/>
       <c r="F67" s="24"/>
@@ -1701,12 +1740,12 @@
       <c r="J67" s="17"/>
       <c r="K67" s="24"/>
       <c r="L67" s="24"/>
-      <c r="N67" s="24"/>
+      <c r="N67" s="57"/>
       <c r="O67" s="26"/>
     </row>
     <row r="68" spans="2:15" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="34"/>
-      <c r="C68" s="35"/>
+      <c r="B68" s="30"/>
+      <c r="C68" s="31"/>
       <c r="D68" s="18"/>
       <c r="E68" s="24"/>
       <c r="F68" s="24"/>
@@ -1716,42 +1755,42 @@
       <c r="J68" s="17"/>
       <c r="K68" s="24"/>
       <c r="L68" s="24"/>
-      <c r="N68" s="24"/>
+      <c r="N68" s="57"/>
       <c r="O68" s="26"/>
     </row>
     <row r="69" spans="2:15" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="23"/>
       <c r="C69" s="23"/>
       <c r="D69" s="21"/>
-      <c r="E69" s="32"/>
-      <c r="F69" s="33"/>
+      <c r="E69" s="28"/>
+      <c r="F69" s="29"/>
       <c r="G69" s="17"/>
       <c r="H69" s="24"/>
       <c r="I69" s="24"/>
       <c r="J69" s="17"/>
       <c r="K69" s="24"/>
       <c r="L69" s="24"/>
-      <c r="N69" s="24"/>
+      <c r="N69" s="57"/>
       <c r="O69" s="26"/>
     </row>
     <row r="70" spans="2:15" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="23"/>
       <c r="C70" s="23"/>
       <c r="D70" s="19"/>
-      <c r="E70" s="34"/>
-      <c r="F70" s="35"/>
+      <c r="E70" s="30"/>
+      <c r="F70" s="31"/>
       <c r="G70" s="17"/>
       <c r="H70" s="24"/>
       <c r="I70" s="24"/>
       <c r="J70" s="17"/>
       <c r="K70" s="24"/>
       <c r="L70" s="24"/>
-      <c r="N70" s="24"/>
+      <c r="N70" s="57"/>
       <c r="O70" s="26"/>
     </row>
     <row r="71" spans="2:15" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="39"/>
-      <c r="C71" s="40"/>
+      <c r="B71" s="32"/>
+      <c r="C71" s="33"/>
       <c r="D71" s="17"/>
       <c r="E71" s="24"/>
       <c r="F71" s="24"/>
@@ -1761,12 +1800,12 @@
       <c r="J71" s="17"/>
       <c r="K71" s="24"/>
       <c r="L71" s="24"/>
-      <c r="N71" s="24"/>
+      <c r="N71" s="57"/>
       <c r="O71" s="26"/>
     </row>
     <row r="72" spans="2:15" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="41"/>
-      <c r="C72" s="42"/>
+      <c r="B72" s="34"/>
+      <c r="C72" s="35"/>
       <c r="D72" s="18"/>
       <c r="E72" s="24"/>
       <c r="F72" s="24"/>
@@ -1776,7 +1815,7 @@
       <c r="J72" s="17"/>
       <c r="K72" s="24"/>
       <c r="L72" s="24"/>
-      <c r="N72" s="24"/>
+      <c r="N72" s="57"/>
       <c r="O72" s="26"/>
     </row>
     <row r="73" spans="2:15" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1786,12 +1825,12 @@
       <c r="E73" s="24"/>
       <c r="F73" s="24"/>
       <c r="G73" s="22"/>
-      <c r="H73" s="32"/>
-      <c r="I73" s="33"/>
+      <c r="H73" s="28"/>
+      <c r="I73" s="29"/>
       <c r="J73" s="17"/>
       <c r="K73" s="24"/>
       <c r="L73" s="24"/>
-      <c r="N73" s="24"/>
+      <c r="N73" s="57"/>
       <c r="O73" s="26"/>
     </row>
     <row r="74" spans="2:15" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1801,17 +1840,17 @@
       <c r="E74" s="24"/>
       <c r="F74" s="24"/>
       <c r="G74" s="20"/>
-      <c r="H74" s="34"/>
-      <c r="I74" s="35"/>
+      <c r="H74" s="30"/>
+      <c r="I74" s="31"/>
       <c r="J74" s="17"/>
       <c r="K74" s="24"/>
       <c r="L74" s="24"/>
-      <c r="N74" s="24"/>
+      <c r="N74" s="57"/>
       <c r="O74" s="26"/>
     </row>
     <row r="75" spans="2:15" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="32"/>
-      <c r="C75" s="33"/>
+      <c r="B75" s="28"/>
+      <c r="C75" s="29"/>
       <c r="D75" s="17"/>
       <c r="E75" s="24"/>
       <c r="F75" s="24"/>
@@ -1821,12 +1860,12 @@
       <c r="J75" s="20"/>
       <c r="K75" s="24"/>
       <c r="L75" s="24"/>
-      <c r="N75" s="24"/>
+      <c r="N75" s="57"/>
       <c r="O75" s="26"/>
     </row>
     <row r="76" spans="2:15" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="34"/>
-      <c r="C76" s="35"/>
+      <c r="B76" s="30"/>
+      <c r="C76" s="31"/>
       <c r="D76" s="17"/>
       <c r="E76" s="24"/>
       <c r="F76" s="24"/>
@@ -1836,42 +1875,42 @@
       <c r="J76" s="20"/>
       <c r="K76" s="24"/>
       <c r="L76" s="24"/>
-      <c r="N76" s="24"/>
+      <c r="N76" s="57"/>
       <c r="O76" s="26"/>
     </row>
     <row r="77" spans="2:15" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="23"/>
       <c r="C77" s="23"/>
       <c r="D77" s="21"/>
-      <c r="E77" s="39"/>
-      <c r="F77" s="40"/>
+      <c r="E77" s="32"/>
+      <c r="F77" s="33"/>
       <c r="G77" s="17"/>
       <c r="H77" s="24"/>
       <c r="I77" s="24"/>
       <c r="J77" s="20"/>
       <c r="K77" s="24"/>
       <c r="L77" s="24"/>
-      <c r="N77" s="24"/>
+      <c r="N77" s="57"/>
       <c r="O77" s="26"/>
     </row>
     <row r="78" spans="2:15" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="23"/>
       <c r="C78" s="23"/>
       <c r="D78" s="19"/>
-      <c r="E78" s="41"/>
-      <c r="F78" s="42"/>
+      <c r="E78" s="34"/>
+      <c r="F78" s="35"/>
       <c r="G78" s="17"/>
       <c r="H78" s="24"/>
       <c r="I78" s="24"/>
       <c r="J78" s="20"/>
       <c r="K78" s="24"/>
       <c r="L78" s="24"/>
-      <c r="N78" s="24"/>
+      <c r="N78" s="57"/>
       <c r="O78" s="26"/>
     </row>
     <row r="79" spans="2:15" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="39"/>
-      <c r="C79" s="40"/>
+      <c r="B79" s="32"/>
+      <c r="C79" s="33"/>
       <c r="D79" s="17"/>
       <c r="E79" s="24"/>
       <c r="F79" s="24"/>
@@ -1881,12 +1920,12 @@
       <c r="J79" s="20"/>
       <c r="K79" s="24"/>
       <c r="L79" s="24"/>
-      <c r="N79" s="24"/>
+      <c r="N79" s="57"/>
       <c r="O79" s="26"/>
     </row>
     <row r="80" spans="2:15" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="41"/>
-      <c r="C80" s="42"/>
+      <c r="B80" s="34"/>
+      <c r="C80" s="35"/>
       <c r="D80" s="17"/>
       <c r="E80" s="24"/>
       <c r="F80" s="24"/>
@@ -1896,7 +1935,7 @@
       <c r="J80" s="20"/>
       <c r="K80" s="24"/>
       <c r="L80" s="24"/>
-      <c r="N80" s="24"/>
+      <c r="N80" s="57"/>
       <c r="O80" s="26"/>
     </row>
     <row r="81" spans="2:17" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1909,14 +1948,14 @@
       <c r="H81" s="24"/>
       <c r="I81" s="24"/>
       <c r="J81" s="22"/>
-      <c r="K81" s="32"/>
-      <c r="L81" s="33"/>
-      <c r="N81" s="24"/>
+      <c r="K81" s="28"/>
+      <c r="L81" s="29"/>
+      <c r="N81" s="57"/>
       <c r="O81" s="26"/>
-      <c r="P81" s="43" t="s">
+      <c r="P81" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="Q81" s="36"/>
+      <c r="Q81" s="48"/>
     </row>
     <row r="82" spans="2:17" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="23"/>
@@ -1928,16 +1967,16 @@
       <c r="H82" s="24"/>
       <c r="I82" s="24"/>
       <c r="J82" s="20"/>
-      <c r="K82" s="34"/>
-      <c r="L82" s="35"/>
-      <c r="N82" s="24"/>
+      <c r="K82" s="30"/>
+      <c r="L82" s="31"/>
+      <c r="N82" s="57"/>
       <c r="O82" s="26"/>
-      <c r="P82" s="43"/>
-      <c r="Q82" s="36"/>
+      <c r="P82" s="47"/>
+      <c r="Q82" s="48"/>
     </row>
     <row r="83" spans="2:17" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="32"/>
-      <c r="C83" s="33"/>
+      <c r="B83" s="28"/>
+      <c r="C83" s="29"/>
       <c r="D83" s="17"/>
       <c r="E83" s="24"/>
       <c r="F83" s="24"/>
@@ -1948,12 +1987,12 @@
       <c r="K83" s="24"/>
       <c r="L83" s="24"/>
       <c r="M83" s="4"/>
-      <c r="N83" s="24"/>
+      <c r="N83" s="57"/>
       <c r="O83" s="26"/>
     </row>
     <row r="84" spans="2:17" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="34"/>
-      <c r="C84" s="35"/>
+      <c r="B84" s="30"/>
+      <c r="C84" s="31"/>
       <c r="D84" s="17"/>
       <c r="E84" s="24"/>
       <c r="F84" s="24"/>
@@ -1964,15 +2003,15 @@
       <c r="K84" s="24"/>
       <c r="L84" s="24"/>
       <c r="M84" s="4"/>
-      <c r="N84" s="24"/>
+      <c r="N84" s="57"/>
       <c r="O84" s="26"/>
     </row>
     <row r="85" spans="2:17" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="23"/>
       <c r="C85" s="23"/>
       <c r="D85" s="21"/>
-      <c r="E85" s="32"/>
-      <c r="F85" s="33"/>
+      <c r="E85" s="28"/>
+      <c r="F85" s="29"/>
       <c r="G85" s="17"/>
       <c r="H85" s="24"/>
       <c r="I85" s="24"/>
@@ -1980,15 +2019,15 @@
       <c r="K85" s="24"/>
       <c r="L85" s="24"/>
       <c r="M85" s="4"/>
-      <c r="N85" s="24"/>
+      <c r="N85" s="57"/>
       <c r="O85" s="26"/>
     </row>
     <row r="86" spans="2:17" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="23"/>
       <c r="C86" s="23"/>
       <c r="D86" s="19"/>
-      <c r="E86" s="34"/>
-      <c r="F86" s="35"/>
+      <c r="E86" s="30"/>
+      <c r="F86" s="31"/>
       <c r="G86" s="17"/>
       <c r="H86" s="24"/>
       <c r="I86" s="24"/>
@@ -1996,12 +2035,12 @@
       <c r="K86" s="24"/>
       <c r="L86" s="24"/>
       <c r="M86" s="4"/>
-      <c r="N86" s="24"/>
+      <c r="N86" s="57"/>
       <c r="O86" s="26"/>
     </row>
     <row r="87" spans="2:17" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="39"/>
-      <c r="C87" s="40"/>
+      <c r="B87" s="32"/>
+      <c r="C87" s="33"/>
       <c r="D87" s="17"/>
       <c r="E87" s="24"/>
       <c r="F87" s="24"/>
@@ -2012,12 +2051,12 @@
       <c r="K87" s="24"/>
       <c r="L87" s="24"/>
       <c r="M87" s="4"/>
-      <c r="N87" s="24"/>
+      <c r="N87" s="57"/>
       <c r="O87" s="26"/>
     </row>
     <row r="88" spans="2:17" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="41"/>
-      <c r="C88" s="42"/>
+      <c r="B88" s="34"/>
+      <c r="C88" s="35"/>
       <c r="D88" s="17"/>
       <c r="E88" s="24"/>
       <c r="F88" s="24"/>
@@ -2028,7 +2067,7 @@
       <c r="K88" s="24"/>
       <c r="L88" s="24"/>
       <c r="M88" s="4"/>
-      <c r="N88" s="24"/>
+      <c r="N88" s="57"/>
       <c r="O88" s="26"/>
     </row>
     <row r="89" spans="2:17" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2038,13 +2077,13 @@
       <c r="E89" s="24"/>
       <c r="F89" s="24"/>
       <c r="G89" s="22"/>
-      <c r="H89" s="39"/>
-      <c r="I89" s="40"/>
+      <c r="H89" s="32"/>
+      <c r="I89" s="33"/>
       <c r="J89" s="17"/>
       <c r="K89" s="24"/>
       <c r="L89" s="24"/>
       <c r="M89" s="4"/>
-      <c r="N89" s="24"/>
+      <c r="N89" s="57"/>
       <c r="O89" s="26"/>
     </row>
     <row r="90" spans="2:17" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2054,18 +2093,18 @@
       <c r="E90" s="24"/>
       <c r="F90" s="24"/>
       <c r="G90" s="20"/>
-      <c r="H90" s="41"/>
-      <c r="I90" s="42"/>
+      <c r="H90" s="34"/>
+      <c r="I90" s="35"/>
       <c r="J90" s="17"/>
       <c r="K90" s="24"/>
       <c r="L90" s="24"/>
       <c r="M90" s="4"/>
-      <c r="N90" s="24"/>
+      <c r="N90" s="57"/>
       <c r="O90" s="26"/>
     </row>
     <row r="91" spans="2:17" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="32"/>
-      <c r="C91" s="33"/>
+      <c r="B91" s="28"/>
+      <c r="C91" s="29"/>
       <c r="D91" s="17"/>
       <c r="E91" s="24"/>
       <c r="F91" s="24"/>
@@ -2076,12 +2115,12 @@
       <c r="K91" s="24"/>
       <c r="L91" s="24"/>
       <c r="M91" s="4"/>
-      <c r="N91" s="24"/>
+      <c r="N91" s="57"/>
       <c r="O91" s="26"/>
     </row>
     <row r="92" spans="2:17" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="34"/>
-      <c r="C92" s="35"/>
+      <c r="B92" s="30"/>
+      <c r="C92" s="31"/>
       <c r="D92" s="17"/>
       <c r="E92" s="24"/>
       <c r="F92" s="24"/>
@@ -2092,15 +2131,15 @@
       <c r="K92" s="24"/>
       <c r="L92" s="24"/>
       <c r="M92" s="4"/>
-      <c r="N92" s="24"/>
+      <c r="N92" s="57"/>
       <c r="O92" s="26"/>
     </row>
     <row r="93" spans="2:17" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="23"/>
       <c r="C93" s="23"/>
       <c r="D93" s="21"/>
-      <c r="E93" s="39"/>
-      <c r="F93" s="40"/>
+      <c r="E93" s="32"/>
+      <c r="F93" s="33"/>
       <c r="G93" s="17"/>
       <c r="H93" s="24"/>
       <c r="I93" s="24"/>
@@ -2108,15 +2147,15 @@
       <c r="K93" s="24"/>
       <c r="L93" s="24"/>
       <c r="M93" s="4"/>
-      <c r="N93" s="24"/>
+      <c r="N93" s="57"/>
       <c r="O93" s="26"/>
     </row>
     <row r="94" spans="2:17" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="23"/>
       <c r="C94" s="23"/>
       <c r="D94" s="19"/>
-      <c r="E94" s="41"/>
-      <c r="F94" s="42"/>
+      <c r="E94" s="34"/>
+      <c r="F94" s="35"/>
       <c r="G94" s="17"/>
       <c r="H94" s="24"/>
       <c r="I94" s="24"/>
@@ -2124,12 +2163,12 @@
       <c r="K94" s="24"/>
       <c r="L94" s="24"/>
       <c r="M94" s="4"/>
-      <c r="N94" s="27"/>
+      <c r="N94" s="57"/>
       <c r="O94" s="26"/>
     </row>
     <row r="95" spans="2:17" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="39"/>
-      <c r="C95" s="40"/>
+      <c r="B95" s="32"/>
+      <c r="C95" s="33"/>
       <c r="D95" s="17"/>
       <c r="E95" s="24"/>
       <c r="F95" s="24"/>
@@ -2140,12 +2179,12 @@
       <c r="K95" s="24"/>
       <c r="L95" s="24"/>
       <c r="M95" s="4"/>
-      <c r="N95" s="27"/>
+      <c r="N95" s="57"/>
       <c r="O95" s="26"/>
     </row>
     <row r="96" spans="2:17" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="41"/>
-      <c r="C96" s="42"/>
+      <c r="B96" s="34"/>
+      <c r="C96" s="35"/>
       <c r="D96" s="17"/>
       <c r="E96" s="24"/>
       <c r="F96" s="24"/>
@@ -2156,8 +2195,8 @@
       <c r="K96" s="24"/>
       <c r="L96" s="24"/>
       <c r="M96" s="4"/>
-      <c r="N96" s="28"/>
-      <c r="O96" s="29"/>
+      <c r="N96" s="58"/>
+      <c r="O96" s="27"/>
     </row>
     <row r="97" spans="2:15" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="23"/>
@@ -2172,8 +2211,8 @@
       <c r="K97" s="24"/>
       <c r="L97" s="24"/>
       <c r="M97" s="5"/>
-      <c r="N97" s="39"/>
-      <c r="O97" s="40"/>
+      <c r="N97" s="32"/>
+      <c r="O97" s="33"/>
     </row>
     <row r="98" spans="2:15" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="23"/>
@@ -2188,12 +2227,12 @@
       <c r="K98" s="24"/>
       <c r="L98" s="24"/>
       <c r="M98" s="4"/>
-      <c r="N98" s="41"/>
-      <c r="O98" s="42"/>
+      <c r="N98" s="34"/>
+      <c r="O98" s="35"/>
     </row>
     <row r="99" spans="2:15" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="32"/>
-      <c r="C99" s="33"/>
+      <c r="B99" s="28"/>
+      <c r="C99" s="29"/>
       <c r="D99" s="17"/>
       <c r="E99" s="24"/>
       <c r="F99" s="24"/>
@@ -2206,8 +2245,8 @@
       <c r="M99" s="4"/>
     </row>
     <row r="100" spans="2:15" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="34"/>
-      <c r="C100" s="35"/>
+      <c r="B100" s="30"/>
+      <c r="C100" s="31"/>
       <c r="D100" s="17"/>
       <c r="E100" s="24"/>
       <c r="F100" s="24"/>
@@ -2223,8 +2262,8 @@
       <c r="B101" s="23"/>
       <c r="C101" s="23"/>
       <c r="D101" s="21"/>
-      <c r="E101" s="32"/>
-      <c r="F101" s="33"/>
+      <c r="E101" s="28"/>
+      <c r="F101" s="29"/>
       <c r="G101" s="17"/>
       <c r="H101" s="24"/>
       <c r="I101" s="24"/>
@@ -2237,8 +2276,8 @@
       <c r="B102" s="23"/>
       <c r="C102" s="23"/>
       <c r="D102" s="19"/>
-      <c r="E102" s="34"/>
-      <c r="F102" s="35"/>
+      <c r="E102" s="30"/>
+      <c r="F102" s="31"/>
       <c r="G102" s="17"/>
       <c r="H102" s="24"/>
       <c r="I102" s="24"/>
@@ -2248,8 +2287,8 @@
       <c r="M102" s="4"/>
     </row>
     <row r="103" spans="2:15" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="39"/>
-      <c r="C103" s="40"/>
+      <c r="B103" s="32"/>
+      <c r="C103" s="33"/>
       <c r="D103" s="17"/>
       <c r="E103" s="24"/>
       <c r="F103" s="24"/>
@@ -2262,8 +2301,8 @@
       <c r="M103" s="4"/>
     </row>
     <row r="104" spans="2:15" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="41"/>
-      <c r="C104" s="42"/>
+      <c r="B104" s="34"/>
+      <c r="C104" s="35"/>
       <c r="D104" s="17"/>
       <c r="E104" s="24"/>
       <c r="F104" s="24"/>
@@ -2282,8 +2321,8 @@
       <c r="E105" s="24"/>
       <c r="F105" s="24"/>
       <c r="G105" s="22"/>
-      <c r="H105" s="32"/>
-      <c r="I105" s="33"/>
+      <c r="H105" s="28"/>
+      <c r="I105" s="29"/>
       <c r="J105" s="17"/>
       <c r="K105" s="24"/>
       <c r="L105" s="24"/>
@@ -2296,16 +2335,16 @@
       <c r="E106" s="24"/>
       <c r="F106" s="24"/>
       <c r="G106" s="20"/>
-      <c r="H106" s="34"/>
-      <c r="I106" s="35"/>
+      <c r="H106" s="30"/>
+      <c r="I106" s="31"/>
       <c r="J106" s="17"/>
       <c r="K106" s="24"/>
       <c r="L106" s="24"/>
       <c r="M106" s="4"/>
     </row>
     <row r="107" spans="2:15" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="32"/>
-      <c r="C107" s="33"/>
+      <c r="B107" s="28"/>
+      <c r="C107" s="29"/>
       <c r="D107" s="17"/>
       <c r="E107" s="24"/>
       <c r="F107" s="24"/>
@@ -2318,8 +2357,8 @@
       <c r="M107" s="4"/>
     </row>
     <row r="108" spans="2:15" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="34"/>
-      <c r="C108" s="35"/>
+      <c r="B108" s="30"/>
+      <c r="C108" s="31"/>
       <c r="D108" s="17"/>
       <c r="E108" s="24"/>
       <c r="F108" s="24"/>
@@ -2335,8 +2374,8 @@
       <c r="B109" s="23"/>
       <c r="C109" s="23"/>
       <c r="D109" s="21"/>
-      <c r="E109" s="39"/>
-      <c r="F109" s="40"/>
+      <c r="E109" s="32"/>
+      <c r="F109" s="33"/>
       <c r="G109" s="17"/>
       <c r="H109" s="24"/>
       <c r="I109" s="24"/>
@@ -2349,8 +2388,8 @@
       <c r="B110" s="23"/>
       <c r="C110" s="23"/>
       <c r="D110" s="19"/>
-      <c r="E110" s="41"/>
-      <c r="F110" s="42"/>
+      <c r="E110" s="34"/>
+      <c r="F110" s="35"/>
       <c r="G110" s="17"/>
       <c r="H110" s="24"/>
       <c r="I110" s="24"/>
@@ -2360,8 +2399,8 @@
       <c r="M110" s="4"/>
     </row>
     <row r="111" spans="2:15" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="39"/>
-      <c r="C111" s="40"/>
+      <c r="B111" s="32"/>
+      <c r="C111" s="33"/>
       <c r="D111" s="17"/>
       <c r="E111" s="24"/>
       <c r="F111" s="24"/>
@@ -2374,8 +2413,8 @@
       <c r="M111" s="4"/>
     </row>
     <row r="112" spans="2:15" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="41"/>
-      <c r="C112" s="42"/>
+      <c r="B112" s="34"/>
+      <c r="C112" s="35"/>
       <c r="D112" s="17"/>
       <c r="E112" s="24"/>
       <c r="F112" s="24"/>
@@ -2397,16 +2436,14 @@
       <c r="H113" s="24"/>
       <c r="I113" s="24"/>
       <c r="J113" s="22"/>
-      <c r="K113" s="39"/>
-      <c r="L113" s="40"/>
-      <c r="N113" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="O113" s="48"/>
-      <c r="P113" s="36"/>
-      <c r="Q113" s="36"/>
-      <c r="R113" s="36"/>
-      <c r="S113" s="36"/>
+      <c r="K113" s="32"/>
+      <c r="L113" s="33"/>
+      <c r="N113" s="55"/>
+      <c r="O113" s="55"/>
+      <c r="P113" s="53"/>
+      <c r="Q113" s="53"/>
+      <c r="R113" s="53"/>
+      <c r="S113" s="53"/>
     </row>
     <row r="114" spans="2:19" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="23"/>
@@ -2418,18 +2455,18 @@
       <c r="H114" s="24"/>
       <c r="I114" s="24"/>
       <c r="J114" s="20"/>
-      <c r="K114" s="41"/>
-      <c r="L114" s="42"/>
-      <c r="N114" s="48"/>
-      <c r="O114" s="48"/>
-      <c r="P114" s="37"/>
-      <c r="Q114" s="37"/>
-      <c r="R114" s="37"/>
-      <c r="S114" s="37"/>
+      <c r="K114" s="34"/>
+      <c r="L114" s="35"/>
+      <c r="N114" s="55"/>
+      <c r="O114" s="55"/>
+      <c r="P114" s="53"/>
+      <c r="Q114" s="53"/>
+      <c r="R114" s="53"/>
+      <c r="S114" s="53"/>
     </row>
     <row r="115" spans="2:19" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="32"/>
-      <c r="C115" s="33"/>
+      <c r="B115" s="28"/>
+      <c r="C115" s="29"/>
       <c r="D115" s="17"/>
       <c r="E115" s="24"/>
       <c r="F115" s="24"/>
@@ -2445,8 +2482,8 @@
       <c r="S115" s="9"/>
     </row>
     <row r="116" spans="2:19" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="34"/>
-      <c r="C116" s="35"/>
+      <c r="B116" s="30"/>
+      <c r="C116" s="31"/>
       <c r="D116" s="17"/>
       <c r="E116" s="24"/>
       <c r="F116" s="24"/>
@@ -2454,38 +2491,38 @@
       <c r="H116" s="24"/>
       <c r="I116" s="24"/>
       <c r="J116" s="20"/>
-      <c r="N116" s="48" t="s">
-        <v>4</v>
+      <c r="N116" s="55" t="s">
+        <v>3</v>
       </c>
-      <c r="O116" s="48"/>
-      <c r="P116" s="38"/>
-      <c r="Q116" s="38"/>
-      <c r="R116" s="38"/>
-      <c r="S116" s="38"/>
+      <c r="O116" s="55"/>
+      <c r="P116" s="48"/>
+      <c r="Q116" s="48"/>
+      <c r="R116" s="48"/>
+      <c r="S116" s="48"/>
     </row>
     <row r="117" spans="2:19" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="23"/>
       <c r="C117" s="23"/>
       <c r="D117" s="21"/>
-      <c r="E117" s="32"/>
-      <c r="F117" s="33"/>
+      <c r="E117" s="28"/>
+      <c r="F117" s="29"/>
       <c r="G117" s="17"/>
       <c r="H117" s="24"/>
       <c r="I117" s="24"/>
       <c r="J117" s="20"/>
-      <c r="N117" s="48"/>
-      <c r="O117" s="48"/>
-      <c r="P117" s="37"/>
-      <c r="Q117" s="37"/>
-      <c r="R117" s="37"/>
-      <c r="S117" s="37"/>
+      <c r="N117" s="55"/>
+      <c r="O117" s="55"/>
+      <c r="P117" s="54"/>
+      <c r="Q117" s="54"/>
+      <c r="R117" s="54"/>
+      <c r="S117" s="54"/>
     </row>
     <row r="118" spans="2:19" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="23"/>
       <c r="C118" s="23"/>
       <c r="D118" s="19"/>
-      <c r="E118" s="34"/>
-      <c r="F118" s="35"/>
+      <c r="E118" s="30"/>
+      <c r="F118" s="31"/>
       <c r="G118" s="17"/>
       <c r="H118" s="24"/>
       <c r="I118" s="24"/>
@@ -2498,8 +2535,8 @@
       <c r="S118" s="8"/>
     </row>
     <row r="119" spans="2:19" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="39"/>
-      <c r="C119" s="40"/>
+      <c r="B119" s="32"/>
+      <c r="C119" s="33"/>
       <c r="D119" s="17"/>
       <c r="E119" s="24"/>
       <c r="F119" s="24"/>
@@ -2507,18 +2544,18 @@
       <c r="H119" s="24"/>
       <c r="I119" s="24"/>
       <c r="J119" s="20"/>
-      <c r="N119" s="48" t="s">
-        <v>5</v>
+      <c r="N119" s="55" t="s">
+        <v>4</v>
       </c>
-      <c r="O119" s="48"/>
-      <c r="P119" s="36"/>
-      <c r="Q119" s="36"/>
-      <c r="R119" s="36"/>
-      <c r="S119" s="36"/>
+      <c r="O119" s="55"/>
+      <c r="P119" s="53"/>
+      <c r="Q119" s="53"/>
+      <c r="R119" s="53"/>
+      <c r="S119" s="53"/>
     </row>
     <row r="120" spans="2:19" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="41"/>
-      <c r="C120" s="42"/>
+      <c r="B120" s="34"/>
+      <c r="C120" s="35"/>
       <c r="D120" s="17"/>
       <c r="E120" s="24"/>
       <c r="F120" s="24"/>
@@ -2526,12 +2563,12 @@
       <c r="H120" s="24"/>
       <c r="I120" s="24"/>
       <c r="J120" s="20"/>
-      <c r="N120" s="48"/>
-      <c r="O120" s="48"/>
-      <c r="P120" s="37"/>
-      <c r="Q120" s="37"/>
-      <c r="R120" s="37"/>
-      <c r="S120" s="37"/>
+      <c r="N120" s="55"/>
+      <c r="O120" s="55"/>
+      <c r="P120" s="54"/>
+      <c r="Q120" s="54"/>
+      <c r="R120" s="54"/>
+      <c r="S120" s="54"/>
     </row>
     <row r="121" spans="2:19" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="23"/>
@@ -2540,8 +2577,8 @@
       <c r="E121" s="24"/>
       <c r="F121" s="24"/>
       <c r="G121" s="22"/>
-      <c r="H121" s="39"/>
-      <c r="I121" s="40"/>
+      <c r="H121" s="32"/>
+      <c r="I121" s="33"/>
       <c r="J121" s="17"/>
       <c r="N121" s="10"/>
       <c r="O121" s="10"/>
@@ -2557,21 +2594,21 @@
       <c r="E122" s="24"/>
       <c r="F122" s="24"/>
       <c r="G122" s="20"/>
-      <c r="H122" s="41"/>
-      <c r="I122" s="42"/>
+      <c r="H122" s="34"/>
+      <c r="I122" s="35"/>
       <c r="J122" s="17"/>
-      <c r="N122" s="48" t="s">
+      <c r="N122" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="O122" s="48"/>
-      <c r="P122" s="36"/>
-      <c r="Q122" s="36"/>
-      <c r="R122" s="36"/>
-      <c r="S122" s="36"/>
+      <c r="O122" s="55"/>
+      <c r="P122" s="48"/>
+      <c r="Q122" s="48"/>
+      <c r="R122" s="48"/>
+      <c r="S122" s="48"/>
     </row>
     <row r="123" spans="2:19" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="32"/>
-      <c r="C123" s="33"/>
+      <c r="B123" s="28"/>
+      <c r="C123" s="29"/>
       <c r="D123" s="17"/>
       <c r="E123" s="24"/>
       <c r="F123" s="24"/>
@@ -2579,16 +2616,16 @@
       <c r="H123" s="17"/>
       <c r="I123" s="17"/>
       <c r="J123" s="17"/>
-      <c r="N123" s="48"/>
-      <c r="O123" s="48"/>
-      <c r="P123" s="37"/>
-      <c r="Q123" s="37"/>
-      <c r="R123" s="37"/>
-      <c r="S123" s="37"/>
+      <c r="N123" s="55"/>
+      <c r="O123" s="55"/>
+      <c r="P123" s="54"/>
+      <c r="Q123" s="54"/>
+      <c r="R123" s="54"/>
+      <c r="S123" s="54"/>
     </row>
     <row r="124" spans="2:19" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="34"/>
-      <c r="C124" s="35"/>
+      <c r="B124" s="30"/>
+      <c r="C124" s="31"/>
       <c r="D124" s="17"/>
       <c r="E124" s="24"/>
       <c r="F124" s="24"/>
@@ -2601,8 +2638,8 @@
       <c r="B125" s="23"/>
       <c r="C125" s="23"/>
       <c r="D125" s="21"/>
-      <c r="E125" s="39"/>
-      <c r="F125" s="40"/>
+      <c r="E125" s="32"/>
+      <c r="F125" s="33"/>
       <c r="G125" s="17"/>
       <c r="H125" s="17"/>
       <c r="I125" s="17"/>
@@ -2612,16 +2649,16 @@
       <c r="B126" s="23"/>
       <c r="C126" s="23"/>
       <c r="D126" s="19"/>
-      <c r="E126" s="41"/>
-      <c r="F126" s="42"/>
+      <c r="E126" s="34"/>
+      <c r="F126" s="35"/>
       <c r="G126" s="17"/>
       <c r="H126" s="17"/>
       <c r="I126" s="17"/>
       <c r="J126" s="17"/>
     </row>
     <row r="127" spans="2:19" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="39"/>
-      <c r="C127" s="40"/>
+      <c r="B127" s="32"/>
+      <c r="C127" s="33"/>
       <c r="D127" s="17"/>
       <c r="E127" s="17"/>
       <c r="F127" s="17"/>
@@ -2631,8 +2668,8 @@
       <c r="J127" s="17"/>
     </row>
     <row r="128" spans="2:19" s="7" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="41"/>
-      <c r="C128" s="42"/>
+      <c r="B128" s="34"/>
+      <c r="C128" s="35"/>
       <c r="D128" s="17"/>
       <c r="E128" s="17"/>
       <c r="F128" s="17"/>
@@ -2721,7 +2758,129 @@
     <row r="206" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="207" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="143">
+  <mergeCells count="146">
+    <mergeCell ref="M60:N61"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="K1:L2"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P113:S114"/>
+    <mergeCell ref="P116:S117"/>
+    <mergeCell ref="P119:S120"/>
+    <mergeCell ref="P122:S123"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="E1:F2"/>
+    <mergeCell ref="H1:I2"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="K81:L81"/>
+    <mergeCell ref="K82:L82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="E117:F117"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="E109:F109"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="N1:O2"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="P81:Q82"/>
+    <mergeCell ref="P49:Q50"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="P60:Q61"/>
+    <mergeCell ref="N113:O114"/>
+    <mergeCell ref="N116:O117"/>
+    <mergeCell ref="N119:O120"/>
+    <mergeCell ref="N122:O123"/>
+    <mergeCell ref="H122:I122"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="E125:F125"/>
+    <mergeCell ref="E126:F126"/>
+    <mergeCell ref="E118:F118"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="H121:I121"/>
+    <mergeCell ref="K113:L113"/>
+    <mergeCell ref="K114:L114"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B32:C32"/>
     <mergeCell ref="K17:L17"/>
     <mergeCell ref="K18:L18"/>
     <mergeCell ref="K49:L49"/>
@@ -2746,125 +2905,6 @@
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="N1:O2"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="B128:C128"/>
-    <mergeCell ref="P81:Q82"/>
-    <mergeCell ref="P49:Q50"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="P60:Q61"/>
-    <mergeCell ref="N113:O114"/>
-    <mergeCell ref="N116:O117"/>
-    <mergeCell ref="N119:O120"/>
-    <mergeCell ref="N122:O123"/>
-    <mergeCell ref="H122:I122"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="E125:F125"/>
-    <mergeCell ref="E126:F126"/>
-    <mergeCell ref="E118:F118"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="H121:I121"/>
-    <mergeCell ref="K113:L113"/>
-    <mergeCell ref="K114:L114"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="E117:F117"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="E109:F109"/>
-    <mergeCell ref="E110:F110"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="H105:I105"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="N98:O98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="E102:F102"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="N97:O97"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="E93:F93"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="K1:L2"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P113:S114"/>
-    <mergeCell ref="P116:S117"/>
-    <mergeCell ref="P119:S120"/>
-    <mergeCell ref="P122:S123"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B1:C2"/>
-    <mergeCell ref="E1:F2"/>
-    <mergeCell ref="H1:I2"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="K81:L81"/>
-    <mergeCell ref="K82:L82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="B75:C75"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
